--- a/docs/sphinx_setup/_static/benchmarks_files/OV-2024.4-system-info-detailed.xlsx
+++ b/docs/sphinx_setup/_static/benchmarks_files/OV-2024.4-system-info-detailed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/michael_f_hansen_intel_com/Documents/Documents/NCS/IoTG-Benchmarking/OV_release_by_release/OV-2024.4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F33956F-2550-4697-ABB3-9F1C263C6B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2CE4605-2BF1-4EE1-84BC-AD8D479A905A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31125" yWindow="4050" windowWidth="26775" windowHeight="13770" xr2:uid="{619B73C1-0C67-4D01-B9EA-8D8654122857}"/>
+    <workbookView xWindow="-32220" yWindow="1260" windowWidth="29730" windowHeight="18450" xr2:uid="{998B3E1D-00F3-406A-8CA3-570363B076DA}"/>
   </bookViews>
   <sheets>
     <sheet name="sysinfo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5618" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5615" uniqueCount="436">
   <si>
     <t>Intel® Processor N100</t>
   </si>
@@ -1038,9 +1038,6 @@
     <t>CPU0_DIMM_B0</t>
   </si>
   <si>
-    <t>Ubuntu 20.04.6 LTS</t>
-  </si>
-  <si>
     <t>Ubuntu 22.04.6 LTS</t>
   </si>
   <si>
@@ -1056,13 +1053,7 @@
     <t>Software</t>
   </si>
   <si>
-    <t>5.150-87-generic</t>
-  </si>
-  <si>
-    <t>5.15.47+prerelease6469.7</t>
-  </si>
-  <si>
-    <t>5.4.0-81-generic</t>
+    <t>6.5.10-060510-generic</t>
   </si>
   <si>
     <t>6.5.0-28-generic</t>
@@ -1131,7 +1122,7 @@
     <t>OpenVINO</t>
   </si>
   <si>
-    <t>2024.1</t>
+    <t>2024.4</t>
   </si>
   <si>
     <t>Ubuntu 22.04.3 LTS</t>
@@ -1152,9 +1143,6 @@
     <t>2022.3.0-8891</t>
   </si>
   <si>
-    <t>2024.1-14988</t>
-  </si>
-  <si>
     <t>6.2.0-31-generic</t>
   </si>
   <si>
@@ -1350,10 +1338,7 @@
     <t>6.2.0-41-generic</t>
   </si>
   <si>
-    <t>5.4.0-166-generic</t>
-  </si>
-  <si>
-    <t>5.4.0-163-generic</t>
+    <t>6.2.0-060200-generic</t>
   </si>
   <si>
     <t>SE5C620.86B.01.01.0007.2210270543</t>
@@ -2136,14 +2121,14 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2479,12 +2464,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769EC8DC-FF64-4795-93D0-6B2A3FE460D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF73C9E-B52A-45E4-9690-EBBCE7A6766D}">
   <dimension ref="A1:GI146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="EJ1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="EJ1" sqref="EJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -14106,7 +14091,7 @@
       </c>
       <c r="FS35" s="25"/>
       <c r="FT35" s="15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="FV35" s="44"/>
       <c r="FW35" s="24" t="s">
@@ -14114,7 +14099,7 @@
       </c>
       <c r="FX35" s="25"/>
       <c r="FY35" s="15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="GA35" s="44"/>
       <c r="GB35" s="24" t="s">
@@ -14122,7 +14107,7 @@
       </c>
       <c r="GC35" s="25"/>
       <c r="GD35" s="15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="GF35" s="44"/>
       <c r="GG35" s="24" t="s">
@@ -14130,7 +14115,7 @@
       </c>
       <c r="GH35" s="25"/>
       <c r="GI35" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:191" ht="15" thickBot="1">
@@ -14140,7 +14125,7 @@
       </c>
       <c r="C36" s="66"/>
       <c r="D36" s="93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="89"/>
@@ -14149,7 +14134,7 @@
       </c>
       <c r="H36" s="66"/>
       <c r="I36" s="93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J36" s="17"/>
       <c r="K36" s="41"/>
@@ -14281,7 +14266,7 @@
       </c>
       <c r="CK36" s="25"/>
       <c r="CL36" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="CN36" s="100"/>
       <c r="CO36" s="24" t="s">
@@ -14289,7 +14274,7 @@
       </c>
       <c r="CP36" s="25"/>
       <c r="CQ36" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="CR36" s="101"/>
       <c r="CS36" s="89"/>
@@ -14298,7 +14283,7 @@
       </c>
       <c r="CU36" s="25"/>
       <c r="CV36" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="CW36" s="99"/>
       <c r="CX36" s="41"/>
@@ -14350,7 +14335,7 @@
         <v>220</v>
       </c>
       <c r="EB36" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EC36" s="6"/>
       <c r="ED36" s="6"/>
@@ -14428,7 +14413,7 @@
       </c>
       <c r="FS36" s="25"/>
       <c r="FT36" s="15" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="FV36" s="54"/>
       <c r="FW36" s="24" t="s">
@@ -14436,7 +14421,7 @@
       </c>
       <c r="FX36" s="25"/>
       <c r="FY36" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="GA36" s="54"/>
       <c r="GB36" s="24" t="s">
@@ -14444,7 +14429,7 @@
       </c>
       <c r="GC36" s="25"/>
       <c r="GD36" s="15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="GF36" s="54"/>
       <c r="GG36" s="24" t="s">
@@ -14452,19 +14437,19 @@
       </c>
       <c r="GH36" s="25"/>
       <c r="GI36" s="15" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:191" ht="15" thickBot="1">
       <c r="A37" s="102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="103"/>
       <c r="E37" s="17"/>
       <c r="F37" s="102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -14588,20 +14573,20 @@
         <v>290</v>
       </c>
       <c r="CI37" s="102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CJ37" s="11"/>
       <c r="CK37" s="11"/>
       <c r="CL37" s="103"/>
       <c r="CN37" s="102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CO37" s="11"/>
       <c r="CP37" s="11"/>
       <c r="CQ37" s="103"/>
       <c r="CR37" s="17"/>
       <c r="CS37" s="102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT37" s="11"/>
       <c r="CU37" s="11"/>
@@ -14656,10 +14641,10 @@
         <v>216</v>
       </c>
       <c r="EB37" s="88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="EC37" s="104" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="ED37" s="105"/>
       <c r="EE37" s="106"/>
@@ -14731,25 +14716,25 @@
         <v>267</v>
       </c>
       <c r="FQ37" s="102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="FR37" s="11"/>
       <c r="FS37" s="11"/>
       <c r="FT37" s="103"/>
       <c r="FV37" s="102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="FW37" s="11"/>
       <c r="FX37" s="11"/>
       <c r="FY37" s="103"/>
       <c r="GA37" s="102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="GB37" s="11"/>
       <c r="GC37" s="11"/>
       <c r="GD37" s="103"/>
       <c r="GF37" s="102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="GG37" s="11"/>
       <c r="GH37" s="11"/>
@@ -14757,19 +14742,19 @@
     </row>
     <row r="38" spans="1:191" ht="15" thickBot="1">
       <c r="A38" s="88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B38" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C38" s="108"/>
       <c r="D38" s="109"/>
       <c r="E38" s="17"/>
       <c r="F38" s="88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G38" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H38" s="108"/>
       <c r="I38" s="109"/>
@@ -14798,7 +14783,7 @@
       </c>
       <c r="W38" s="66"/>
       <c r="X38" s="15" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Y38" s="17"/>
       <c r="Z38" s="41"/>
@@ -14815,7 +14800,7 @@
       </c>
       <c r="AG38" s="25"/>
       <c r="AH38" s="15" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AJ38" s="41"/>
       <c r="AK38" s="24" t="s">
@@ -14839,7 +14824,7 @@
       </c>
       <c r="AV38" s="25"/>
       <c r="AW38" s="15" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AY38" s="41"/>
       <c r="AZ38" s="24" t="s">
@@ -14900,25 +14885,25 @@
         <v>140</v>
       </c>
       <c r="CI38" s="88" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="CJ38" s="107"/>
       <c r="CK38" s="108"/>
       <c r="CL38" s="109"/>
       <c r="CN38" s="88" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="CO38" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="CP38" s="108"/>
       <c r="CQ38" s="109"/>
       <c r="CR38" s="110"/>
       <c r="CS38" s="88" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="CT38" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="CU38" s="108"/>
       <c r="CV38" s="109"/>
@@ -14970,10 +14955,10 @@
       <c r="DY38" s="30"/>
       <c r="DZ38" s="85"/>
       <c r="EB38" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="EC38" s="105" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="ED38" s="105"/>
       <c r="EE38" s="106"/>
@@ -14997,7 +14982,7 @@
         <v>260</v>
       </c>
       <c r="EQ38" s="15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="ER38" s="27"/>
       <c r="ES38" s="41"/>
@@ -15005,7 +14990,7 @@
         <v>260</v>
       </c>
       <c r="EU38" s="15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="EV38" s="27"/>
       <c r="EW38" s="41"/>
@@ -15013,7 +14998,7 @@
         <v>260</v>
       </c>
       <c r="EY38" s="15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="EZ38" s="27"/>
       <c r="FA38" s="55"/>
@@ -15028,69 +15013,69 @@
         <v>260</v>
       </c>
       <c r="FG38" s="15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="FI38" s="41"/>
       <c r="FJ38" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FK38" s="15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="FM38" s="41"/>
       <c r="FN38" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FO38" s="15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="FQ38" s="88" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="FR38" s="107" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="FS38" s="108"/>
       <c r="FT38" s="109"/>
       <c r="FV38" s="88" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="FW38" s="107" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="FX38" s="108"/>
       <c r="FY38" s="109"/>
       <c r="GA38" s="88" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="GB38" s="107" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="GC38" s="108"/>
       <c r="GD38" s="109"/>
       <c r="GF38" s="88" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="GG38" s="107" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="GH38" s="108"/>
       <c r="GI38" s="109"/>
     </row>
     <row r="39" spans="1:191" ht="15" thickBot="1">
       <c r="A39" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B39" s="105" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D39" s="106"/>
       <c r="E39" s="17"/>
       <c r="F39" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G39" s="105" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I39" s="106"/>
       <c r="J39" s="17"/>
@@ -15199,7 +15184,7 @@
       </c>
       <c r="BP39" s="66"/>
       <c r="BQ39" s="15" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="BS39" s="64" t="s">
         <v>303</v>
@@ -15232,25 +15217,25 @@
         <v>311</v>
       </c>
       <c r="CI39" s="88" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="CJ39" s="107"/>
       <c r="CK39" s="108"/>
       <c r="CL39" s="109"/>
       <c r="CN39" s="88" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="CO39" s="107" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="CP39" s="108"/>
       <c r="CQ39" s="109"/>
       <c r="CR39" s="101"/>
       <c r="CS39" s="88" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="CT39" s="107" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="CU39" s="108"/>
       <c r="CV39" s="109"/>
@@ -15304,7 +15289,7 @@
         <v>246</v>
       </c>
       <c r="EB39" s="88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="EC39" s="107">
         <v>2022.3</v>
@@ -15379,41 +15364,41 @@
         <v>3</v>
       </c>
       <c r="FQ39" s="88" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="FR39" s="107" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="FS39" s="108"/>
       <c r="FT39" s="109"/>
       <c r="FV39" s="88" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="FW39" s="107" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="FX39" s="108"/>
       <c r="FY39" s="109"/>
       <c r="GA39" s="88" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="GB39" s="107" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="GC39" s="108"/>
       <c r="GD39" s="109"/>
       <c r="GF39" s="88" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="GG39" s="107" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="GH39" s="108"/>
       <c r="GI39" s="109"/>
     </row>
     <row r="40" spans="1:191" ht="15" thickBot="1">
       <c r="A40" s="88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B40" s="114" t="str">
         <f>"2024.4"</f>
@@ -15423,7 +15408,7 @@
       <c r="D40" s="116"/>
       <c r="E40" s="17"/>
       <c r="F40" s="88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G40" s="114" t="str">
         <f>"2024.4"</f>
@@ -15438,7 +15423,7 @@
       </c>
       <c r="M40" s="112"/>
       <c r="N40" s="117" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="O40" s="17"/>
       <c r="P40" s="41"/>
@@ -15447,7 +15432,7 @@
       </c>
       <c r="R40" s="112"/>
       <c r="S40" s="117" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="T40" s="17"/>
       <c r="U40" s="41"/>
@@ -15513,7 +15498,7 @@
       </c>
       <c r="BF40" s="25"/>
       <c r="BG40" s="118" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BI40" s="34"/>
       <c r="BJ40" s="24" t="s">
@@ -15521,7 +15506,7 @@
       </c>
       <c r="BK40" s="25"/>
       <c r="BL40" s="118" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="BN40" s="59"/>
       <c r="BO40" s="65" t="s">
@@ -15537,7 +15522,7 @@
       </c>
       <c r="BU40" s="66"/>
       <c r="BV40" s="15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="BX40" s="34"/>
       <c r="BY40" s="24" t="s">
@@ -15545,7 +15530,7 @@
       </c>
       <c r="BZ40" s="25"/>
       <c r="CA40" s="118" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="CC40" s="34"/>
       <c r="CD40" s="24" t="s">
@@ -15553,10 +15538,10 @@
       </c>
       <c r="CE40" s="25"/>
       <c r="CF40" s="118" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="CI40" s="88" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="CJ40" s="114" t="str">
         <f>"2024.4"</f>
@@ -15565,7 +15550,7 @@
       <c r="CK40" s="115"/>
       <c r="CL40" s="116"/>
       <c r="CN40" s="88" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="CO40" s="114" t="str">
         <f>"2024.4"</f>
@@ -15575,7 +15560,7 @@
       <c r="CQ40" s="116"/>
       <c r="CR40" s="110"/>
       <c r="CS40" s="88" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="CT40" s="114" t="str">
         <f>"2024.4"</f>
@@ -15704,34 +15689,34 @@
         <v>213</v>
       </c>
       <c r="FQ40" s="88" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="FR40" s="114" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="FS40" s="115"/>
       <c r="FT40" s="116"/>
       <c r="FV40" s="88" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="FW40" s="114" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="FX40" s="115"/>
       <c r="FY40" s="116"/>
       <c r="GA40" s="88" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="GB40" s="114" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="GC40" s="115"/>
       <c r="GD40" s="116"/>
       <c r="GF40" s="88" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="GG40" s="114" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="GH40" s="115"/>
       <c r="GI40" s="116"/>
@@ -15846,7 +15831,7 @@
       </c>
       <c r="BP41" s="25"/>
       <c r="BQ41" s="15" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="BS41" s="59"/>
       <c r="BT41" s="65" t="s">
@@ -15873,27 +15858,27 @@
         <v>47217</v>
       </c>
       <c r="CI41" s="88" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CJ41" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="CK41" s="108"/>
       <c r="CL41" s="109"/>
       <c r="CN41" s="88" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CO41" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="CP41" s="108"/>
       <c r="CQ41" s="109"/>
       <c r="CR41" s="110"/>
       <c r="CS41" s="88" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CT41" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="CU41" s="108"/>
       <c r="CV41" s="109"/>
@@ -15944,13 +15929,13 @@
       </c>
       <c r="DY41" s="30"/>
       <c r="DZ41" s="21" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="EB41" s="88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="EC41" s="104" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="ED41" s="120"/>
       <c r="EE41" s="121"/>
@@ -16022,52 +16007,52 @@
         <v>216</v>
       </c>
       <c r="FQ41" s="88" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="FR41" s="107" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="FS41" s="108"/>
       <c r="FT41" s="109"/>
       <c r="FV41" s="88" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="FW41" s="107" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="FX41" s="108"/>
       <c r="FY41" s="109"/>
       <c r="GA41" s="88" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="GB41" s="107" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="GC41" s="108"/>
       <c r="GD41" s="109"/>
       <c r="GF41" s="88" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="GG41" s="107" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="GH41" s="108"/>
       <c r="GI41" s="109"/>
     </row>
     <row r="42" spans="1:191" ht="15" thickBot="1">
       <c r="A42" s="88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B42" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C42" s="108"/>
       <c r="D42" s="109"/>
       <c r="F42" s="88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G42" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H42" s="108"/>
       <c r="I42" s="109"/>
@@ -16171,7 +16156,7 @@
       </c>
       <c r="BP42" s="25"/>
       <c r="BQ42" s="15" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="BS42" s="61" t="s">
         <v>325</v>
@@ -16204,27 +16189,27 @@
         <v>328</v>
       </c>
       <c r="CI42" s="88" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="CJ42" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="CK42" s="108"/>
       <c r="CL42" s="109"/>
       <c r="CN42" s="88" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="CO42" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="CP42" s="108"/>
       <c r="CQ42" s="109"/>
       <c r="CR42" s="110"/>
       <c r="CS42" s="88" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="CT42" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="CU42" s="108"/>
       <c r="CV42" s="109"/>
@@ -16272,10 +16257,10 @@
       <c r="DW42" s="80"/>
       <c r="DX42" s="78"/>
       <c r="EB42" s="88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="EC42" s="104" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="ED42" s="120"/>
       <c r="EE42" s="121"/>
@@ -16323,7 +16308,7 @@
         <v>260</v>
       </c>
       <c r="FC42" s="15" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="FE42" s="41"/>
       <c r="FF42" s="32" t="s">
@@ -16347,53 +16332,53 @@
         <v>234</v>
       </c>
       <c r="FQ42" s="88" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="FR42" s="107" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="FS42" s="108"/>
       <c r="FT42" s="109"/>
       <c r="FV42" s="88" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="FW42" s="107" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="FX42" s="108"/>
       <c r="FY42" s="109"/>
       <c r="GA42" s="88" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="GB42" s="107" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="GC42" s="108"/>
       <c r="GD42" s="109"/>
       <c r="GF42" s="88" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="GG42" s="107" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="GH42" s="108"/>
       <c r="GI42" s="109"/>
     </row>
     <row r="43" spans="1:191" ht="15" thickBot="1">
       <c r="A43" s="88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B43" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C43" s="108"/>
       <c r="D43" s="109"/>
       <c r="E43" s="17"/>
       <c r="F43" s="88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G43" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H43" s="108"/>
       <c r="I43" s="109"/>
@@ -16404,7 +16389,7 @@
       </c>
       <c r="M43" s="66"/>
       <c r="N43" s="93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O43" s="17"/>
       <c r="P43" s="89"/>
@@ -16413,7 +16398,7 @@
       </c>
       <c r="R43" s="66"/>
       <c r="S43" s="93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="T43" s="17"/>
       <c r="U43" s="41"/>
@@ -16479,7 +16464,7 @@
       </c>
       <c r="BF43" s="25"/>
       <c r="BG43" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BI43" s="122"/>
       <c r="BJ43" s="24" t="s">
@@ -16487,10 +16472,10 @@
       </c>
       <c r="BK43" s="25"/>
       <c r="BL43" s="15" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="BN43" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BO43" s="6"/>
       <c r="BP43" s="6"/>
@@ -16501,7 +16486,7 @@
       </c>
       <c r="BU43" s="25"/>
       <c r="BV43" s="93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BX43" s="51"/>
       <c r="BY43" s="24" t="s">
@@ -16509,7 +16494,7 @@
       </c>
       <c r="BZ43" s="25"/>
       <c r="CA43" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="CC43" s="51"/>
       <c r="CD43" s="24" t="s">
@@ -16517,10 +16502,10 @@
       </c>
       <c r="CE43" s="25"/>
       <c r="CF43" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="CI43" s="88" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="CJ43" s="104">
         <v>20</v>
@@ -16528,7 +16513,7 @@
       <c r="CK43" s="105"/>
       <c r="CL43" s="106"/>
       <c r="CN43" s="88" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="CO43" s="104">
         <v>14</v>
@@ -16537,7 +16522,7 @@
       <c r="CQ43" s="106"/>
       <c r="CR43" s="110"/>
       <c r="CS43" s="88" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="CT43" s="104">
         <v>24</v>
@@ -16594,10 +16579,10 @@
         <v>3</v>
       </c>
       <c r="EB43" s="88" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="EC43" s="104" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="ED43" s="105"/>
       <c r="EE43" s="106"/>
@@ -16669,41 +16654,33 @@
         <v>247</v>
       </c>
       <c r="FQ43" s="88" t="s">
-        <v>376</v>
-      </c>
-      <c r="FR43" s="104">
-        <v>1</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="FR43" s="104"/>
       <c r="FS43" s="105"/>
       <c r="FT43" s="106"/>
       <c r="FV43" s="88" t="s">
-        <v>376</v>
-      </c>
-      <c r="FW43" s="104">
-        <v>1</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="FW43" s="104"/>
       <c r="FX43" s="105"/>
       <c r="FY43" s="106"/>
       <c r="GA43" s="88" t="s">
-        <v>376</v>
-      </c>
-      <c r="GB43" s="104">
-        <v>1</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="GB43" s="104"/>
       <c r="GC43" s="105"/>
       <c r="GD43" s="106"/>
       <c r="GF43" s="88" t="s">
-        <v>376</v>
-      </c>
-      <c r="GG43" s="104">
-        <v>1</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="GG43" s="104"/>
       <c r="GH43" s="105"/>
       <c r="GI43" s="106"/>
     </row>
     <row r="44" spans="1:191" ht="15" thickBot="1">
       <c r="A44" s="88" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B44" s="104">
         <v>4</v>
@@ -16712,7 +16689,7 @@
       <c r="D44" s="106"/>
       <c r="E44" s="17"/>
       <c r="F44" s="88" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G44" s="104">
         <v>12</v>
@@ -16721,14 +16698,14 @@
       <c r="I44" s="106"/>
       <c r="J44" s="17"/>
       <c r="K44" s="102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
       <c r="N44" s="103"/>
       <c r="O44" s="17"/>
       <c r="P44" s="102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
@@ -16792,64 +16769,64 @@
         <v>205</v>
       </c>
       <c r="BD44" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BE44" s="6"/>
       <c r="BF44" s="6"/>
       <c r="BG44" s="7"/>
       <c r="BI44" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BJ44" s="6"/>
       <c r="BK44" s="6"/>
       <c r="BL44" s="7"/>
       <c r="BN44" s="88" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="BO44" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="BP44" s="108"/>
       <c r="BQ44" s="109"/>
       <c r="BS44" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BT44" s="6"/>
       <c r="BU44" s="6"/>
       <c r="BV44" s="7"/>
       <c r="BX44" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BY44" s="6"/>
       <c r="BZ44" s="6"/>
       <c r="CA44" s="7"/>
       <c r="CC44" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CD44" s="6"/>
       <c r="CE44" s="6"/>
       <c r="CF44" s="7"/>
       <c r="CI44" s="88" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="CJ44" s="104" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="CK44" s="105"/>
       <c r="CL44" s="106"/>
       <c r="CN44" s="88" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="CO44" s="104" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="CP44" s="105"/>
       <c r="CQ44" s="106"/>
       <c r="CS44" s="88" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="CT44" s="104" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="CU44" s="105"/>
       <c r="CV44" s="106"/>
@@ -16974,19 +16951,19 @@
       <c r="E45" s="17"/>
       <c r="J45" s="17"/>
       <c r="K45" s="88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L45" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M45" s="108"/>
       <c r="N45" s="109"/>
       <c r="O45" s="17"/>
       <c r="P45" s="88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Q45" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="R45" s="108"/>
       <c r="S45" s="109"/>
@@ -17006,7 +16983,7 @@
       </c>
       <c r="AB45" s="66"/>
       <c r="AC45" s="15" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AE45" s="59"/>
       <c r="AF45" s="24" t="s">
@@ -17049,50 +17026,50 @@
         <v>205</v>
       </c>
       <c r="BD45" s="88" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="BE45" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="BF45" s="108"/>
       <c r="BG45" s="109"/>
       <c r="BI45" s="88" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="BJ45" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="BK45" s="108"/>
       <c r="BL45" s="109"/>
       <c r="BN45" s="88" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="BO45" s="107" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="BP45" s="108"/>
       <c r="BQ45" s="109"/>
       <c r="BS45" s="88" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="BT45" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="BU45" s="108"/>
       <c r="BV45" s="109"/>
       <c r="BX45" s="88" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="BY45" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="BZ45" s="108"/>
       <c r="CA45" s="109"/>
       <c r="CC45" s="88" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="CD45" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="CE45" s="108"/>
       <c r="CF45" s="109"/>
@@ -17102,7 +17079,7 @@
       </c>
       <c r="CZ45" s="66"/>
       <c r="DA45" s="15" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="DC45" s="59"/>
       <c r="DD45" s="24" t="s">
@@ -17118,7 +17095,7 @@
       </c>
       <c r="DJ45" s="66"/>
       <c r="DK45" s="15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="DM45" s="41"/>
       <c r="DN45" s="65" t="s">
@@ -17126,7 +17103,7 @@
       </c>
       <c r="DO45" s="66"/>
       <c r="DP45" s="15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="DR45" s="41"/>
       <c r="DS45" s="65" t="s">
@@ -17134,7 +17111,7 @@
       </c>
       <c r="DT45" s="66"/>
       <c r="DU45" s="15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="DW45" s="80"/>
       <c r="DX45" s="29" t="s">
@@ -17164,7 +17141,7 @@
         <v>260</v>
       </c>
       <c r="EQ45" s="15" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="ER45" s="27"/>
       <c r="ES45" s="41"/>
@@ -17172,7 +17149,7 @@
         <v>260</v>
       </c>
       <c r="EU45" s="15" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="EV45" s="27"/>
       <c r="EW45" s="41"/>
@@ -17180,7 +17157,7 @@
         <v>260</v>
       </c>
       <c r="EY45" s="15" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="EZ45" s="27"/>
       <c r="FA45" s="55"/>
@@ -17195,39 +17172,39 @@
         <v>260</v>
       </c>
       <c r="FG45" s="15" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="FI45" s="41"/>
       <c r="FJ45" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FK45" s="15" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="FM45" s="41"/>
       <c r="FN45" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FO45" s="15" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46" spans="1:191" ht="15" thickBot="1">
       <c r="E46" s="17"/>
       <c r="J46" s="17"/>
       <c r="K46" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L46" s="105" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N46" s="106"/>
       <c r="O46" s="17"/>
       <c r="P46" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q46" s="105" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="S46" s="106"/>
       <c r="T46" s="17"/>
@@ -17278,7 +17255,7 @@
       </c>
       <c r="AQ46" s="66"/>
       <c r="AR46" s="15" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AT46" s="64" t="s">
         <v>277</v>
@@ -17298,26 +17275,26 @@
       </c>
       <c r="BA46" s="66"/>
       <c r="BB46" s="15" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="BD46" s="88" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="BE46" s="107" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="BF46" s="108"/>
       <c r="BG46" s="109"/>
       <c r="BI46" s="88" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="BJ46" s="107" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="BK46" s="108"/>
       <c r="BL46" s="109"/>
       <c r="BN46" s="88" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="BO46" s="114" t="str">
         <f>"2024.4"</f>
@@ -17326,26 +17303,26 @@
       <c r="BP46" s="115"/>
       <c r="BQ46" s="116"/>
       <c r="BS46" s="88" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="BT46" s="107" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="BU46" s="108"/>
       <c r="BV46" s="109"/>
       <c r="BX46" s="88" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="BY46" s="107" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="BZ46" s="108"/>
       <c r="CA46" s="109"/>
       <c r="CC46" s="88" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="CD46" s="107" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="CE46" s="108"/>
       <c r="CF46" s="109"/>
@@ -17473,7 +17450,7 @@
       <c r="E47" s="17"/>
       <c r="J47" s="17"/>
       <c r="K47" s="88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L47" s="114" t="str">
         <f>"2024.4"</f>
@@ -17483,7 +17460,7 @@
       <c r="N47" s="116"/>
       <c r="O47" s="17"/>
       <c r="P47" s="88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q47" s="114" t="str">
         <f>"2024.4"</f>
@@ -17498,7 +17475,7 @@
       </c>
       <c r="W47" s="66"/>
       <c r="X47" s="15" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="Y47" s="17"/>
       <c r="Z47" s="41"/>
@@ -17523,7 +17500,7 @@
       </c>
       <c r="AL47" s="66"/>
       <c r="AM47" s="15" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AO47" s="41"/>
       <c r="AP47" s="65" t="s">
@@ -17531,7 +17508,7 @@
       </c>
       <c r="AQ47" s="66"/>
       <c r="AR47" s="15" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AT47" s="41"/>
       <c r="AU47" s="65" t="s">
@@ -17539,7 +17516,7 @@
       </c>
       <c r="AV47" s="66"/>
       <c r="AW47" s="15" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AY47" s="41"/>
       <c r="AZ47" s="65" t="s">
@@ -17547,10 +17524,10 @@
       </c>
       <c r="BA47" s="66"/>
       <c r="BB47" s="15" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="BD47" s="88" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="BE47" s="114" t="str">
         <f>"2024.4"</f>
@@ -17559,7 +17536,7 @@
       <c r="BF47" s="115"/>
       <c r="BG47" s="116"/>
       <c r="BI47" s="88" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="BJ47" s="114" t="str">
         <f>"2024.4"</f>
@@ -17572,7 +17549,7 @@
       <c r="BP47" s="108"/>
       <c r="BQ47" s="109"/>
       <c r="BS47" s="88" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="BT47" s="114" t="str">
         <f>"2024.4"</f>
@@ -17581,7 +17558,7 @@
       <c r="BU47" s="115"/>
       <c r="BV47" s="116"/>
       <c r="BX47" s="88" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="BY47" s="114" t="str">
         <f>"2024.4"</f>
@@ -17590,7 +17567,7 @@
       <c r="BZ47" s="115"/>
       <c r="CA47" s="116"/>
       <c r="CC47" s="88" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="CD47" s="114" t="str">
         <f>"2024.4"</f>
@@ -17604,7 +17581,7 @@
       </c>
       <c r="CZ47" s="66"/>
       <c r="DA47" s="15" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="DC47" s="41"/>
       <c r="DD47" s="65" t="s">
@@ -17612,7 +17589,7 @@
       </c>
       <c r="DE47" s="66"/>
       <c r="DF47" s="15" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="DH47" s="41"/>
       <c r="DI47" s="65" t="s">
@@ -17795,10 +17772,10 @@
       <c r="BK48" s="108"/>
       <c r="BL48" s="109"/>
       <c r="BN48" s="88" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="BO48" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="BP48" s="108"/>
       <c r="BQ48" s="109"/>
@@ -17934,19 +17911,19 @@
       <c r="E49" s="17"/>
       <c r="J49" s="17"/>
       <c r="K49" s="88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L49" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M49" s="108"/>
       <c r="N49" s="109"/>
       <c r="O49" s="17"/>
       <c r="P49" s="88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Q49" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="R49" s="108"/>
       <c r="S49" s="109"/>
@@ -17992,7 +17969,7 @@
       </c>
       <c r="AQ49" s="66"/>
       <c r="AR49" s="15" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AT49" s="41"/>
       <c r="AU49" s="65" t="s">
@@ -18010,53 +17987,53 @@
       </c>
       <c r="BA49" s="66"/>
       <c r="BB49" s="15" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="BD49" s="88" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="BE49" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="BF49" s="108"/>
       <c r="BG49" s="109"/>
       <c r="BI49" s="88" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="BJ49" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="BK49" s="108"/>
       <c r="BL49" s="109"/>
       <c r="BN49" s="88" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="BO49" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="BP49" s="108"/>
       <c r="BQ49" s="109"/>
       <c r="BS49" s="88" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="BT49" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="BU49" s="108"/>
       <c r="BV49" s="109"/>
       <c r="BX49" s="88" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="BY49" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="BZ49" s="108"/>
       <c r="CA49" s="109"/>
       <c r="CC49" s="88" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CD49" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="CE49" s="108"/>
       <c r="CF49" s="109"/>
@@ -18152,7 +18129,7 @@
         <v>260</v>
       </c>
       <c r="FC49" s="15" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="FE49" s="41"/>
       <c r="FF49" s="32" t="s">
@@ -18178,18 +18155,18 @@
     </row>
     <row r="50" spans="5:171" ht="15" thickBot="1">
       <c r="K50" s="88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L50" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M50" s="108"/>
       <c r="N50" s="109"/>
       <c r="P50" s="88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Q50" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="R50" s="108"/>
       <c r="S50" s="109"/>
@@ -18231,7 +18208,7 @@
       </c>
       <c r="AQ50" s="66"/>
       <c r="AR50" s="15" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AT50" s="41"/>
       <c r="AU50" s="65" t="s">
@@ -18247,26 +18224,26 @@
       </c>
       <c r="BA50" s="66"/>
       <c r="BB50" s="15" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="BD50" s="88" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="BE50" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="BF50" s="108"/>
       <c r="BG50" s="109"/>
       <c r="BI50" s="88" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="BJ50" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="BK50" s="108"/>
       <c r="BL50" s="109"/>
       <c r="BN50" s="88" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BO50" s="104">
         <v>4</v>
@@ -18274,26 +18251,26 @@
       <c r="BP50" s="105"/>
       <c r="BQ50" s="106"/>
       <c r="BS50" s="88" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="BT50" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="BU50" s="108"/>
       <c r="BV50" s="109"/>
       <c r="BX50" s="88" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="BY50" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="BZ50" s="108"/>
       <c r="CA50" s="109"/>
       <c r="CC50" s="88" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="CD50" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="CE50" s="108"/>
       <c r="CF50" s="109"/>
@@ -18411,7 +18388,7 @@
       <c r="E51" s="17"/>
       <c r="J51" s="17"/>
       <c r="K51" s="88" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L51" s="104">
         <v>12</v>
@@ -18420,7 +18397,7 @@
       <c r="N51" s="106"/>
       <c r="O51" s="17"/>
       <c r="P51" s="88" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Q51" s="104">
         <v>12</v>
@@ -18462,7 +18439,7 @@
         <v>290</v>
       </c>
       <c r="AO51" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP51" s="6"/>
       <c r="AQ51" s="6"/>
@@ -18476,13 +18453,13 @@
         <v>290</v>
       </c>
       <c r="AY51" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AZ51" s="6"/>
       <c r="BA51" s="6"/>
       <c r="BB51" s="7"/>
       <c r="BD51" s="88" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BE51" s="104">
         <v>4</v>
@@ -18490,7 +18467,7 @@
       <c r="BF51" s="105"/>
       <c r="BG51" s="106"/>
       <c r="BI51" s="88" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BJ51" s="104">
         <v>4</v>
@@ -18498,15 +18475,15 @@
       <c r="BK51" s="105"/>
       <c r="BL51" s="106"/>
       <c r="BN51" s="88" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="BO51" s="104" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="BP51" s="105"/>
       <c r="BQ51" s="106"/>
       <c r="BS51" s="88" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BT51" s="104">
         <v>4</v>
@@ -18514,7 +18491,7 @@
       <c r="BU51" s="105"/>
       <c r="BV51" s="106"/>
       <c r="BX51" s="88" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BY51" s="104">
         <v>4</v>
@@ -18522,7 +18499,7 @@
       <c r="BZ51" s="105"/>
       <c r="CA51" s="106"/>
       <c r="CC51" s="88" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="CD51" s="104">
         <v>4</v>
@@ -18684,10 +18661,10 @@
         <v>140</v>
       </c>
       <c r="AO52" s="88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AP52" s="104" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AQ52" s="105"/>
       <c r="AR52" s="106"/>
@@ -18700,50 +18677,50 @@
         <v>140</v>
       </c>
       <c r="AY52" s="88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AZ52" s="104" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="BA52" s="105"/>
       <c r="BB52" s="106"/>
       <c r="BD52" s="88" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="BE52" s="124" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="BF52" s="125"/>
       <c r="BG52" s="126"/>
       <c r="BI52" s="88" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="BJ52" s="124" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="BK52" s="125"/>
       <c r="BL52" s="126"/>
       <c r="BS52" s="88" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="BT52" s="104" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="BU52" s="105"/>
       <c r="BV52" s="106"/>
       <c r="BX52" s="88" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="BY52" s="124" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="BZ52" s="125"/>
       <c r="CA52" s="126"/>
       <c r="CC52" s="88" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="CD52" s="124" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="CE52" s="125"/>
       <c r="CF52" s="126"/>
@@ -18769,7 +18746,7 @@
       </c>
       <c r="DJ52" s="66"/>
       <c r="DK52" s="15" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="DM52" s="41"/>
       <c r="DN52" s="65" t="s">
@@ -18777,7 +18754,7 @@
       </c>
       <c r="DO52" s="66"/>
       <c r="DP52" s="15" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="DR52" s="41"/>
       <c r="DS52" s="65" t="s">
@@ -18785,7 +18762,7 @@
       </c>
       <c r="DT52" s="66"/>
       <c r="DU52" s="15" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="DW52" s="80"/>
       <c r="DX52" s="29" t="s">
@@ -18800,14 +18777,14 @@
         <v>260</v>
       </c>
       <c r="EI52" s="15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="EK52" s="41"/>
       <c r="EL52" s="32" t="s">
         <v>260</v>
       </c>
       <c r="EM52" s="15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="EN52" s="27"/>
       <c r="EO52" s="41"/>
@@ -18815,7 +18792,7 @@
         <v>260</v>
       </c>
       <c r="EQ52" s="15" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="ER52" s="27"/>
       <c r="ES52" s="41"/>
@@ -18823,7 +18800,7 @@
         <v>260</v>
       </c>
       <c r="EU52" s="15" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="EV52" s="27"/>
       <c r="EW52" s="41"/>
@@ -18831,7 +18808,7 @@
         <v>260</v>
       </c>
       <c r="EY52" s="15" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="EZ52" s="27"/>
       <c r="FA52" s="55"/>
@@ -18846,21 +18823,21 @@
         <v>260</v>
       </c>
       <c r="FG52" s="15" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="FI52" s="41"/>
       <c r="FJ52" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FK52" s="15" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="FM52" s="41"/>
       <c r="FN52" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FO52" s="15" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53" spans="5:171" ht="15" thickBot="1">
@@ -18876,7 +18853,7 @@
       </c>
       <c r="W53" s="66"/>
       <c r="X53" s="15" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="Y53" s="17"/>
       <c r="Z53" s="31" t="s">
@@ -18887,7 +18864,7 @@
       </c>
       <c r="AB53" s="66"/>
       <c r="AC53" s="15" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AE53" s="61" t="s">
         <v>303</v>
@@ -18897,7 +18874,7 @@
       </c>
       <c r="AG53" s="25"/>
       <c r="AH53" s="15" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AJ53" s="64" t="s">
         <v>303</v>
@@ -18907,13 +18884,13 @@
       </c>
       <c r="AL53" s="66"/>
       <c r="AM53" s="15" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AO53" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AP53" s="104" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AQ53" s="105"/>
       <c r="AR53" s="106"/>
@@ -18925,13 +18902,13 @@
       </c>
       <c r="AV53" s="66"/>
       <c r="AW53" s="15" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AY53" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AZ53" s="104" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="BA53" s="105"/>
       <c r="BB53" s="106"/>
@@ -18943,7 +18920,7 @@
       </c>
       <c r="CZ53" s="66"/>
       <c r="DA53" s="15" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="DC53" s="64" t="s">
         <v>303</v>
@@ -18953,7 +18930,7 @@
       </c>
       <c r="DE53" s="66"/>
       <c r="DF53" s="15" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="DH53" s="41"/>
       <c r="DI53" s="70" t="s">
@@ -19066,7 +19043,7 @@
       </c>
       <c r="W54" s="66"/>
       <c r="X54" s="15" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Y54" s="17"/>
       <c r="Z54" s="41"/>
@@ -19091,10 +19068,10 @@
       </c>
       <c r="AL54" s="66"/>
       <c r="AM54" s="22" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AO54" s="88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AP54" s="107">
         <v>2022.3</v>
@@ -19107,10 +19084,10 @@
       </c>
       <c r="AV54" s="66"/>
       <c r="AW54" s="15" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AY54" s="88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AZ54" s="107">
         <v>2022.3</v>
@@ -19123,7 +19100,7 @@
       </c>
       <c r="CZ54" s="66"/>
       <c r="DA54" s="127" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="DC54" s="41"/>
       <c r="DD54" s="65" t="s">
@@ -19414,7 +19391,7 @@
       </c>
       <c r="W56" s="66"/>
       <c r="X56" s="15" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Y56" s="17"/>
       <c r="Z56" s="64" t="s">
@@ -19425,7 +19402,7 @@
       </c>
       <c r="AB56" s="66"/>
       <c r="AC56" s="15" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AE56" s="61" t="s">
         <v>325</v>
@@ -19435,7 +19412,7 @@
       </c>
       <c r="AG56" s="25"/>
       <c r="AH56" s="15" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AJ56" s="64" t="s">
         <v>325</v>
@@ -19445,13 +19422,13 @@
       </c>
       <c r="AL56" s="66"/>
       <c r="AM56" s="15" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AO56" s="88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AP56" s="107" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AQ56" s="108"/>
       <c r="AR56" s="109"/>
@@ -19463,13 +19440,13 @@
       </c>
       <c r="AV56" s="66"/>
       <c r="AW56" s="15" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AY56" s="88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AZ56" s="107" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="BA56" s="108"/>
       <c r="BB56" s="109"/>
@@ -19569,7 +19546,7 @@
         <v>260</v>
       </c>
       <c r="FC56" s="15" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="FE56" s="41"/>
       <c r="FF56" s="32" t="s">
@@ -19604,7 +19581,7 @@
       </c>
       <c r="W57" s="66"/>
       <c r="X57" s="15" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="Y57" s="17"/>
       <c r="Z57" s="89"/>
@@ -19613,7 +19590,7 @@
       </c>
       <c r="AB57" s="66"/>
       <c r="AC57" s="93" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AE57" s="122"/>
       <c r="AF57" s="24" t="s">
@@ -19621,7 +19598,7 @@
       </c>
       <c r="AG57" s="25"/>
       <c r="AH57" s="93" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AJ57" s="89"/>
       <c r="AK57" s="65" t="s">
@@ -19629,13 +19606,13 @@
       </c>
       <c r="AL57" s="66"/>
       <c r="AM57" s="15" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AO57" s="88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AP57" s="107" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AQ57" s="108"/>
       <c r="AR57" s="109"/>
@@ -19645,13 +19622,13 @@
       </c>
       <c r="AV57" s="66"/>
       <c r="AW57" s="15" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AY57" s="88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AZ57" s="107" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="BA57" s="108"/>
       <c r="BB57" s="109"/>
@@ -19661,7 +19638,7 @@
       </c>
       <c r="CZ57" s="66"/>
       <c r="DA57" s="15" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="DC57" s="89"/>
       <c r="DD57" s="65" t="s">
@@ -19669,7 +19646,7 @@
       </c>
       <c r="DE57" s="66"/>
       <c r="DF57" s="15" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="DH57" s="41"/>
       <c r="DI57" s="65" t="s">
@@ -19696,7 +19673,7 @@
         <v>0</v>
       </c>
       <c r="DW57" s="102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DX57" s="11"/>
       <c r="DY57" s="11"/>
@@ -19775,32 +19752,32 @@
       <c r="O58" s="27"/>
       <c r="T58" s="27"/>
       <c r="U58" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="V58" s="6"/>
       <c r="W58" s="6"/>
       <c r="X58" s="7"/>
       <c r="Y58" s="27"/>
       <c r="Z58" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AA58" s="6"/>
       <c r="AB58" s="6"/>
       <c r="AC58" s="7"/>
       <c r="AE58" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF58" s="6"/>
       <c r="AG58" s="6"/>
       <c r="AH58" s="7"/>
       <c r="AJ58" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AK58" s="6"/>
       <c r="AL58" s="6"/>
       <c r="AM58" s="7"/>
       <c r="AO58" s="88" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AP58" s="104">
         <v>4</v>
@@ -19808,13 +19785,13 @@
       <c r="AQ58" s="105"/>
       <c r="AR58" s="106"/>
       <c r="AT58" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AU58" s="6"/>
       <c r="AV58" s="6"/>
       <c r="AW58" s="7"/>
       <c r="AY58" s="88" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AZ58" s="104">
         <v>4</v>
@@ -19822,13 +19799,13 @@
       <c r="BA58" s="105"/>
       <c r="BB58" s="106"/>
       <c r="CX58" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CY58" s="6"/>
       <c r="CZ58" s="6"/>
       <c r="DA58" s="7"/>
       <c r="DC58" s="102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DD58" s="11"/>
       <c r="DE58" s="11"/>
@@ -19858,10 +19835,10 @@
         <v>205</v>
       </c>
       <c r="DW58" s="88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="DX58" s="104" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="DY58" s="105"/>
       <c r="DZ58" s="106"/>
@@ -19939,59 +19916,59 @@
       <c r="O59" s="27"/>
       <c r="T59" s="27"/>
       <c r="U59" s="88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="V59" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="W59" s="108"/>
       <c r="X59" s="109"/>
       <c r="Y59" s="27"/>
       <c r="Z59" s="88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AA59" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AB59" s="108"/>
       <c r="AC59" s="109"/>
       <c r="AE59" s="88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AF59" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AG59" s="108"/>
       <c r="AH59" s="109"/>
       <c r="AJ59" s="88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AK59" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AL59" s="108"/>
       <c r="AM59" s="109"/>
       <c r="AT59" s="88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AU59" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AV59" s="108"/>
       <c r="AW59" s="109"/>
       <c r="CX59" s="88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="CY59" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="CZ59" s="108"/>
       <c r="DA59" s="109"/>
       <c r="DC59" s="88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="DD59" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="DE59" s="108"/>
       <c r="DF59" s="109"/>
@@ -20020,10 +19997,10 @@
         <v>205</v>
       </c>
       <c r="DW59" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="DX59" s="105" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="DY59" s="105"/>
       <c r="DZ59" s="106"/>
@@ -20047,7 +20024,7 @@
         <v>260</v>
       </c>
       <c r="EQ59" s="15" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="ER59" s="27"/>
       <c r="ES59" s="41"/>
@@ -20055,7 +20032,7 @@
         <v>260</v>
       </c>
       <c r="EU59" s="15" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="EV59" s="27"/>
       <c r="EW59" s="41"/>
@@ -20063,7 +20040,7 @@
         <v>260</v>
       </c>
       <c r="EY59" s="15" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="EZ59" s="27"/>
       <c r="FA59" s="55"/>
@@ -20078,21 +20055,21 @@
         <v>260</v>
       </c>
       <c r="FG59" s="15" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="FI59" s="41"/>
       <c r="FJ59" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FK59" s="15" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="FM59" s="41"/>
       <c r="FN59" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FO59" s="15" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="5:171" ht="15" thickBot="1">
@@ -20101,58 +20078,58 @@
       <c r="O60" s="94"/>
       <c r="T60" s="94"/>
       <c r="U60" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="V60" s="105" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="X60" s="106"/>
       <c r="Y60" s="94"/>
       <c r="Z60" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AA60" s="105" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AB60" s="105"/>
       <c r="AC60" s="106"/>
       <c r="AE60" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AF60" s="105" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AG60" s="105"/>
       <c r="AH60" s="106"/>
       <c r="AJ60" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AK60" s="105" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AL60" s="105"/>
       <c r="AM60" s="106"/>
       <c r="AT60" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AU60" s="107" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AV60" s="108"/>
       <c r="AW60" s="109"/>
       <c r="CX60" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="CY60" s="105" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="CZ60" s="105"/>
       <c r="DA60" s="106"/>
       <c r="DC60" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="DD60" s="104" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="DE60" s="105"/>
       <c r="DF60" s="106"/>
@@ -20181,7 +20158,7 @@
         <v>6</v>
       </c>
       <c r="DW60" s="88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="DX60" s="107">
         <v>2022.3</v>
@@ -20262,7 +20239,7 @@
       <c r="O61" s="94"/>
       <c r="T61" s="94"/>
       <c r="U61" s="88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="V61" s="114" t="str">
         <f>"2024.4"</f>
@@ -20272,7 +20249,7 @@
       <c r="X61" s="116"/>
       <c r="Y61" s="94"/>
       <c r="Z61" s="88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AA61" s="114" t="str">
         <f>"2024.4"</f>
@@ -20281,7 +20258,7 @@
       <c r="AB61" s="115"/>
       <c r="AC61" s="116"/>
       <c r="AE61" s="88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AF61" s="114" t="str">
         <f>"2024.4"</f>
@@ -20290,7 +20267,7 @@
       <c r="AG61" s="115"/>
       <c r="AH61" s="116"/>
       <c r="AJ61" s="88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AK61" s="114" t="str">
         <f>"2024.4"</f>
@@ -20299,7 +20276,7 @@
       <c r="AL61" s="115"/>
       <c r="AM61" s="116"/>
       <c r="AT61" s="88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AU61" s="114" t="str">
         <f>"2024.4"</f>
@@ -20308,7 +20285,7 @@
       <c r="AV61" s="115"/>
       <c r="AW61" s="116"/>
       <c r="CX61" s="88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="CY61" s="114" t="str">
         <f>"2024.4"</f>
@@ -20317,7 +20294,7 @@
       <c r="CZ61" s="115"/>
       <c r="DA61" s="116"/>
       <c r="DC61" s="88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="DD61" s="114" t="str">
         <f>"2024.4"</f>
@@ -20480,10 +20457,10 @@
         <v>216</v>
       </c>
       <c r="DW62" s="88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="DX62" s="104" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="DY62" s="120"/>
       <c r="DZ62" s="121"/>
@@ -20561,59 +20538,59 @@
       <c r="O63" s="94"/>
       <c r="T63" s="94"/>
       <c r="U63" s="88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="V63" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="W63" s="108"/>
       <c r="X63" s="109"/>
       <c r="Y63" s="94"/>
       <c r="Z63" s="88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AA63" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AB63" s="108"/>
       <c r="AC63" s="109"/>
       <c r="AE63" s="88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AF63" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AG63" s="108"/>
       <c r="AH63" s="109"/>
       <c r="AJ63" s="88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AK63" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AL63" s="108"/>
       <c r="AM63" s="109"/>
       <c r="AT63" s="88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AU63" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AV63" s="108"/>
       <c r="AW63" s="109"/>
       <c r="CX63" s="88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="CY63" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="CZ63" s="108"/>
       <c r="DA63" s="109"/>
       <c r="DC63" s="88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="DD63" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="DE63" s="108"/>
       <c r="DF63" s="109"/>
@@ -20642,10 +20619,10 @@
         <v>235</v>
       </c>
       <c r="DW63" s="88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="DX63" s="104" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="DY63" s="120"/>
       <c r="DZ63" s="121"/>
@@ -20693,7 +20670,7 @@
         <v>260</v>
       </c>
       <c r="FC63" s="15" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="FE63" s="41"/>
       <c r="FF63" s="32" t="s">
@@ -20723,59 +20700,59 @@
       <c r="O64" s="94"/>
       <c r="T64" s="94"/>
       <c r="U64" s="88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="V64" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="W64" s="108"/>
       <c r="X64" s="109"/>
       <c r="Y64" s="94"/>
       <c r="Z64" s="88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AA64" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AB64" s="108"/>
       <c r="AC64" s="109"/>
       <c r="AE64" s="88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AF64" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AG64" s="108"/>
       <c r="AH64" s="109"/>
       <c r="AJ64" s="88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AK64" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AL64" s="108"/>
       <c r="AM64" s="109"/>
       <c r="AT64" s="88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AU64" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AV64" s="108"/>
       <c r="AW64" s="109"/>
       <c r="CX64" s="88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="CY64" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="CZ64" s="108"/>
       <c r="DA64" s="109"/>
       <c r="DC64" s="88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="DD64" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="DE64" s="108"/>
       <c r="DF64" s="109"/>
@@ -20804,10 +20781,10 @@
         <v>32768</v>
       </c>
       <c r="DW64" s="88" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="DX64" s="104" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="DY64" s="105"/>
       <c r="DZ64" s="106"/>
@@ -20885,7 +20862,7 @@
       <c r="O65" s="94"/>
       <c r="T65" s="94"/>
       <c r="U65" s="88" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="V65" s="104">
         <v>4</v>
@@ -20894,7 +20871,7 @@
       <c r="X65" s="106"/>
       <c r="Y65" s="94"/>
       <c r="Z65" s="88" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AA65" s="104">
         <v>6</v>
@@ -20902,7 +20879,7 @@
       <c r="AB65" s="105"/>
       <c r="AC65" s="106"/>
       <c r="AE65" s="88" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AF65" s="104">
         <v>6</v>
@@ -20910,7 +20887,7 @@
       <c r="AG65" s="105"/>
       <c r="AH65" s="106"/>
       <c r="AJ65" s="88" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AK65" s="104">
         <v>6</v>
@@ -20918,7 +20895,7 @@
       <c r="AL65" s="105"/>
       <c r="AM65" s="106"/>
       <c r="AT65" s="88" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AU65" s="104">
         <v>16</v>
@@ -20926,7 +20903,7 @@
       <c r="AV65" s="105"/>
       <c r="AW65" s="106"/>
       <c r="CX65" s="88" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="CY65" s="104">
         <v>4</v>
@@ -20934,7 +20911,7 @@
       <c r="CZ65" s="105"/>
       <c r="DA65" s="106"/>
       <c r="DC65" s="88" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="DD65" s="104">
         <v>10</v>
@@ -21043,7 +21020,7 @@
       </c>
       <c r="DJ66" s="66"/>
       <c r="DK66" s="15" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="DM66" s="41"/>
       <c r="DN66" s="65" t="s">
@@ -21051,7 +21028,7 @@
       </c>
       <c r="DO66" s="66"/>
       <c r="DP66" s="15" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="DR66" s="41"/>
       <c r="DS66" s="65" t="s">
@@ -21059,21 +21036,21 @@
       </c>
       <c r="DT66" s="66"/>
       <c r="DU66" s="15" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="EG66" s="41"/>
       <c r="EH66" s="32" t="s">
         <v>260</v>
       </c>
       <c r="EI66" s="15" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="EK66" s="41"/>
       <c r="EL66" s="32" t="s">
         <v>260</v>
       </c>
       <c r="EM66" s="15" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="EN66" s="27"/>
       <c r="EO66" s="41"/>
@@ -21081,7 +21058,7 @@
         <v>260</v>
       </c>
       <c r="EQ66" s="15" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="ER66" s="27"/>
       <c r="ES66" s="41"/>
@@ -21089,7 +21066,7 @@
         <v>260</v>
       </c>
       <c r="EU66" s="15" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="EV66" s="27"/>
       <c r="EW66" s="41"/>
@@ -21097,7 +21074,7 @@
         <v>260</v>
       </c>
       <c r="EY66" s="15" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="EZ66" s="27"/>
       <c r="FA66" s="55"/>
@@ -21112,21 +21089,21 @@
         <v>260</v>
       </c>
       <c r="FG66" s="15" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="FI66" s="41"/>
       <c r="FJ66" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FK66" s="15" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="FM66" s="41"/>
       <c r="FN66" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FO66" s="15" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="67" spans="5:171" ht="15" thickBot="1">
@@ -21489,7 +21466,7 @@
         <v>260</v>
       </c>
       <c r="FC70" s="15" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="FE70" s="41"/>
       <c r="FF70" s="32" t="s">
@@ -21715,7 +21692,7 @@
       </c>
       <c r="DJ73" s="66"/>
       <c r="DK73" s="15" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="DM73" s="41"/>
       <c r="DN73" s="65" t="s">
@@ -21723,7 +21700,7 @@
       </c>
       <c r="DO73" s="66"/>
       <c r="DP73" s="15" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="DR73" s="41"/>
       <c r="DS73" s="65" t="s">
@@ -21731,7 +21708,7 @@
       </c>
       <c r="DT73" s="66"/>
       <c r="DU73" s="15" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="EG73" s="41"/>
       <c r="EH73" s="32" t="s">
@@ -21753,7 +21730,7 @@
         <v>260</v>
       </c>
       <c r="EQ73" s="15" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="ER73" s="27"/>
       <c r="ES73" s="41"/>
@@ -21761,7 +21738,7 @@
         <v>260</v>
       </c>
       <c r="EU73" s="15" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="EV73" s="27"/>
       <c r="EW73" s="41"/>
@@ -21769,7 +21746,7 @@
         <v>260</v>
       </c>
       <c r="EY73" s="15" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="EZ73" s="27"/>
       <c r="FA73" s="55"/>
@@ -21784,21 +21761,21 @@
         <v>260</v>
       </c>
       <c r="FG73" s="15" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="FI73" s="41"/>
       <c r="FJ73" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FK73" s="15" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="FM73" s="41"/>
       <c r="FN73" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FO73" s="15" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="74" spans="5:171" ht="15" thickBot="1">
@@ -22155,7 +22132,7 @@
         <v>260</v>
       </c>
       <c r="FC77" s="15" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="FE77" s="41"/>
       <c r="FF77" s="32" t="s">
@@ -22372,7 +22349,7 @@
       </c>
       <c r="DJ80" s="66"/>
       <c r="DK80" s="15" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="DM80" s="41"/>
       <c r="DN80" s="65" t="s">
@@ -22380,7 +22357,7 @@
       </c>
       <c r="DO80" s="66"/>
       <c r="DP80" s="15" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="DR80" s="41"/>
       <c r="DS80" s="65" t="s">
@@ -22388,21 +22365,21 @@
       </c>
       <c r="DT80" s="66"/>
       <c r="DU80" s="15" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="EG80" s="41"/>
       <c r="EH80" s="32" t="s">
         <v>260</v>
       </c>
       <c r="EI80" s="15" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="EK80" s="41"/>
       <c r="EL80" s="32" t="s">
         <v>260</v>
       </c>
       <c r="EM80" s="15" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="EN80" s="27"/>
       <c r="EO80" s="41"/>
@@ -22410,7 +22387,7 @@
         <v>260</v>
       </c>
       <c r="EQ80" s="15" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="ER80" s="27"/>
       <c r="ES80" s="41"/>
@@ -22418,7 +22395,7 @@
         <v>260</v>
       </c>
       <c r="EU80" s="15" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="EV80" s="27"/>
       <c r="EW80" s="41"/>
@@ -22426,7 +22403,7 @@
         <v>260</v>
       </c>
       <c r="EY80" s="15" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="EZ80" s="27"/>
       <c r="FA80" s="55"/>
@@ -22441,21 +22418,21 @@
         <v>260</v>
       </c>
       <c r="FG80" s="15" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="FI80" s="41"/>
       <c r="FJ80" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FK80" s="15" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="FM80" s="41"/>
       <c r="FN80" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FO80" s="15" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="81" spans="112:171" ht="15" thickBot="1">
@@ -23061,7 +23038,7 @@
         <v>260</v>
       </c>
       <c r="EQ87" s="15" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="ER87" s="27"/>
       <c r="ES87" s="41"/>
@@ -23069,7 +23046,7 @@
         <v>260</v>
       </c>
       <c r="EU87" s="15" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="EV87" s="27"/>
       <c r="EW87" s="41"/>
@@ -23077,7 +23054,7 @@
         <v>260</v>
       </c>
       <c r="EY87" s="15" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="EZ87" s="27"/>
       <c r="FA87" s="55"/>
@@ -23092,21 +23069,21 @@
         <v>260</v>
       </c>
       <c r="FG87" s="15" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="FI87" s="41"/>
       <c r="FJ87" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FK87" s="15" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="FM87" s="41"/>
       <c r="FN87" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FO87" s="15" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="88" spans="112:171" ht="15" thickBot="1">
@@ -23674,7 +23651,7 @@
       </c>
       <c r="DJ94" s="66"/>
       <c r="DK94" s="15" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="DM94" s="41"/>
       <c r="DN94" s="65" t="s">
@@ -23682,7 +23659,7 @@
       </c>
       <c r="DO94" s="66"/>
       <c r="DP94" s="15" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="DR94" s="41"/>
       <c r="DS94" s="65" t="s">
@@ -23690,21 +23667,21 @@
       </c>
       <c r="DT94" s="66"/>
       <c r="DU94" s="15" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="EG94" s="41"/>
       <c r="EH94" s="32" t="s">
         <v>260</v>
       </c>
       <c r="EI94" s="15" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="EK94" s="41"/>
       <c r="EL94" s="32" t="s">
         <v>260</v>
       </c>
       <c r="EM94" s="15" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="EN94" s="27"/>
       <c r="EO94" s="41"/>
@@ -23712,7 +23689,7 @@
         <v>260</v>
       </c>
       <c r="EQ94" s="15" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="ER94" s="27"/>
       <c r="ES94" s="41"/>
@@ -23720,7 +23697,7 @@
         <v>260</v>
       </c>
       <c r="EU94" s="15" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="EV94" s="27"/>
       <c r="EW94" s="41"/>
@@ -23728,7 +23705,7 @@
         <v>260</v>
       </c>
       <c r="EY94" s="15" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="EZ94" s="27"/>
       <c r="FA94" s="55"/>
@@ -23743,21 +23720,21 @@
         <v>260</v>
       </c>
       <c r="FG94" s="15" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="FI94" s="41"/>
       <c r="FJ94" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FK94" s="15" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="FM94" s="41"/>
       <c r="FN94" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FO94" s="15" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="95" spans="112:171" ht="15" thickBot="1">
@@ -24108,7 +24085,7 @@
         <v>260</v>
       </c>
       <c r="FC98" s="15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="FE98" s="41"/>
       <c r="FF98" s="32" t="s">
@@ -24325,7 +24302,7 @@
       </c>
       <c r="DJ101" s="66"/>
       <c r="DK101" s="15" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="DM101" s="41"/>
       <c r="DN101" s="65" t="s">
@@ -24333,7 +24310,7 @@
       </c>
       <c r="DO101" s="66"/>
       <c r="DP101" s="15" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="DR101" s="41"/>
       <c r="DS101" s="65" t="s">
@@ -24341,7 +24318,7 @@
       </c>
       <c r="DT101" s="66"/>
       <c r="DU101" s="15" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="EG101" s="41"/>
       <c r="EH101" s="32" t="s">
@@ -24363,7 +24340,7 @@
         <v>260</v>
       </c>
       <c r="EQ101" s="15" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="ER101" s="27"/>
       <c r="ES101" s="41"/>
@@ -24371,7 +24348,7 @@
         <v>260</v>
       </c>
       <c r="EU101" s="15" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="EV101" s="27"/>
       <c r="EW101" s="41"/>
@@ -24379,7 +24356,7 @@
         <v>260</v>
       </c>
       <c r="EY101" s="15" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="EZ101" s="27"/>
       <c r="FA101" s="55"/>
@@ -24394,21 +24371,21 @@
         <v>260</v>
       </c>
       <c r="FG101" s="15" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="FI101" s="41"/>
       <c r="FJ101" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FK101" s="15" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="FM101" s="41"/>
       <c r="FN101" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FO101" s="15" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="102" spans="112:171" ht="15" thickBot="1">
@@ -24759,7 +24736,7 @@
         <v>260</v>
       </c>
       <c r="FC105" s="15" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="FE105" s="41"/>
       <c r="FF105" s="32" t="s">
@@ -24976,7 +24953,7 @@
       </c>
       <c r="DJ108" s="66"/>
       <c r="DK108" s="15" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="DM108" s="41"/>
       <c r="DN108" s="65" t="s">
@@ -24984,7 +24961,7 @@
       </c>
       <c r="DO108" s="66"/>
       <c r="DP108" s="15" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="DR108" s="41"/>
       <c r="DS108" s="65" t="s">
@@ -24992,21 +24969,21 @@
       </c>
       <c r="DT108" s="66"/>
       <c r="DU108" s="15" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="EG108" s="41"/>
       <c r="EH108" s="32" t="s">
         <v>260</v>
       </c>
       <c r="EI108" s="15" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="EK108" s="41"/>
       <c r="EL108" s="32" t="s">
         <v>260</v>
       </c>
       <c r="EM108" s="15" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="EN108" s="27"/>
       <c r="EO108" s="41"/>
@@ -25014,7 +24991,7 @@
         <v>260</v>
       </c>
       <c r="EQ108" s="15" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="ER108" s="27"/>
       <c r="ES108" s="41"/>
@@ -25022,7 +24999,7 @@
         <v>260</v>
       </c>
       <c r="EU108" s="15" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="EV108" s="27"/>
       <c r="EW108" s="41"/>
@@ -25030,7 +25007,7 @@
         <v>260</v>
       </c>
       <c r="EY108" s="15" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="EZ108" s="27"/>
       <c r="FA108" s="55"/>
@@ -25045,21 +25022,21 @@
         <v>260</v>
       </c>
       <c r="FG108" s="15" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="FI108" s="41"/>
       <c r="FJ108" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FK108" s="15" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="FM108" s="41"/>
       <c r="FN108" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FO108" s="15" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="109" spans="112:171" ht="15" thickBot="1">
@@ -25410,7 +25387,7 @@
         <v>260</v>
       </c>
       <c r="FC112" s="15" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="FE112" s="41"/>
       <c r="FF112" s="32" t="s">
@@ -25665,7 +25642,7 @@
         <v>260</v>
       </c>
       <c r="EQ115" s="15" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="ER115" s="27"/>
       <c r="ES115" s="41"/>
@@ -25673,7 +25650,7 @@
         <v>260</v>
       </c>
       <c r="EU115" s="15" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="EV115" s="27"/>
       <c r="EW115" s="41"/>
@@ -25681,7 +25658,7 @@
         <v>260</v>
       </c>
       <c r="EY115" s="15" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="EZ115" s="27"/>
       <c r="FA115" s="55"/>
@@ -25696,21 +25673,21 @@
         <v>260</v>
       </c>
       <c r="FG115" s="15" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="FI115" s="41"/>
       <c r="FJ115" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FK115" s="15" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="FM115" s="41"/>
       <c r="FN115" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FO115" s="15" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="116" spans="112:171" ht="15" thickBot="1">
@@ -26061,7 +26038,7 @@
         <v>260</v>
       </c>
       <c r="FC119" s="15" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="FE119" s="41"/>
       <c r="FF119" s="32" t="s">
@@ -26278,7 +26255,7 @@
       </c>
       <c r="DJ122" s="66"/>
       <c r="DK122" s="15" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="DM122" s="41"/>
       <c r="DN122" s="65" t="s">
@@ -26286,7 +26263,7 @@
       </c>
       <c r="DO122" s="66"/>
       <c r="DP122" s="15" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="DR122" s="41"/>
       <c r="DS122" s="65" t="s">
@@ -26294,21 +26271,21 @@
       </c>
       <c r="DT122" s="66"/>
       <c r="DU122" s="15" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="EG122" s="41"/>
       <c r="EH122" s="32" t="s">
         <v>260</v>
       </c>
       <c r="EI122" s="15" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="EK122" s="41"/>
       <c r="EL122" s="32" t="s">
         <v>260</v>
       </c>
       <c r="EM122" s="15" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="EN122" s="27"/>
       <c r="EO122" s="41"/>
@@ -26316,7 +26293,7 @@
         <v>260</v>
       </c>
       <c r="EQ122" s="15" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="ER122" s="27"/>
       <c r="ES122" s="41"/>
@@ -26324,7 +26301,7 @@
         <v>260</v>
       </c>
       <c r="EU122" s="15" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="EV122" s="27"/>
       <c r="EW122" s="41"/>
@@ -26332,7 +26309,7 @@
         <v>260</v>
       </c>
       <c r="EY122" s="15" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="EZ122" s="27"/>
       <c r="FA122" s="55"/>
@@ -26347,21 +26324,21 @@
         <v>260</v>
       </c>
       <c r="FG122" s="15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="FI122" s="41"/>
       <c r="FJ122" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FK122" s="15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="FM122" s="41"/>
       <c r="FN122" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FO122" s="15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="123" spans="112:171" ht="15" thickBot="1">
@@ -26712,7 +26689,7 @@
         <v>260</v>
       </c>
       <c r="FC126" s="15" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="FE126" s="73"/>
       <c r="FF126" s="32" t="s">
@@ -26929,7 +26906,7 @@
       </c>
       <c r="DJ129" s="66"/>
       <c r="DK129" s="15" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="DM129" s="59"/>
       <c r="DN129" s="65" t="s">
@@ -26937,7 +26914,7 @@
       </c>
       <c r="DO129" s="66"/>
       <c r="DP129" s="15" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="DR129" s="73"/>
       <c r="DS129" s="65" t="s">
@@ -26945,7 +26922,7 @@
       </c>
       <c r="DT129" s="66"/>
       <c r="DU129" s="15" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="EG129" s="73"/>
       <c r="EH129" s="32" t="s">
@@ -26967,7 +26944,7 @@
         <v>260</v>
       </c>
       <c r="EQ129" s="15" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="ER129" s="17"/>
       <c r="ES129" s="73"/>
@@ -26975,7 +26952,7 @@
         <v>260</v>
       </c>
       <c r="EU129" s="15" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="EV129" s="17"/>
       <c r="EW129" s="73"/>
@@ -26983,7 +26960,7 @@
         <v>260</v>
       </c>
       <c r="EY129" s="15" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="EZ129" s="27"/>
       <c r="FA129" s="55"/>
@@ -26998,21 +26975,21 @@
         <v>260</v>
       </c>
       <c r="FG129" s="15" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="FI129" s="73"/>
       <c r="FJ129" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FK129" s="15" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="FM129" s="73"/>
       <c r="FN129" s="32" t="s">
         <v>260</v>
       </c>
       <c r="FO129" s="15" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="130" spans="112:172" ht="15" thickBot="1">
@@ -27137,7 +27114,7 @@
       </c>
       <c r="DJ131" s="66"/>
       <c r="DK131" s="15" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="DM131" s="41"/>
       <c r="DN131" s="65" t="s">
@@ -27145,7 +27122,7 @@
       </c>
       <c r="DO131" s="66"/>
       <c r="DP131" s="15" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="DR131" s="41"/>
       <c r="DS131" s="65" t="s">
@@ -27153,21 +27130,21 @@
       </c>
       <c r="DT131" s="66"/>
       <c r="DU131" s="15" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="EG131" s="41"/>
       <c r="EH131" s="65" t="s">
         <v>293</v>
       </c>
       <c r="EI131" s="15" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="EK131" s="41"/>
       <c r="EL131" s="65" t="s">
         <v>293</v>
       </c>
       <c r="EM131" s="15" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="EN131" s="27"/>
       <c r="EO131" s="41"/>
@@ -27175,7 +27152,7 @@
         <v>293</v>
       </c>
       <c r="EQ131" s="15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="ER131" s="27"/>
       <c r="ES131" s="41"/>
@@ -27183,7 +27160,7 @@
         <v>293</v>
       </c>
       <c r="EU131" s="15" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="EV131" s="27"/>
       <c r="EW131" s="41"/>
@@ -27191,7 +27168,7 @@
         <v>293</v>
       </c>
       <c r="EY131" s="15" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="EZ131" s="27"/>
       <c r="FA131" s="55"/>
@@ -27206,21 +27183,21 @@
         <v>293</v>
       </c>
       <c r="FG131" s="15" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="FI131" s="41"/>
       <c r="FJ131" s="65" t="s">
         <v>293</v>
       </c>
       <c r="FK131" s="15" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="FM131" s="41"/>
       <c r="FN131" s="65" t="s">
         <v>293</v>
       </c>
       <c r="FO131" s="15" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="132" spans="112:172" ht="15" thickBot="1">
@@ -27335,7 +27312,7 @@
       </c>
       <c r="DO133" s="66"/>
       <c r="DP133" s="15" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="DR133" s="64" t="s">
         <v>325</v>
@@ -27401,7 +27378,7 @@
         <v>260</v>
       </c>
       <c r="FC133" s="15" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="FE133" s="64" t="s">
         <v>325</v>
@@ -27410,7 +27387,7 @@
         <v>284</v>
       </c>
       <c r="FG133" s="15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="FI133" s="64" t="s">
         <v>325</v>
@@ -27419,7 +27396,7 @@
         <v>284</v>
       </c>
       <c r="FK133" s="15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="FM133" s="64" t="s">
         <v>325</v>
@@ -27428,7 +27405,7 @@
         <v>284</v>
       </c>
       <c r="FO133" s="15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="134" spans="112:172" ht="15" thickBot="1">
@@ -27438,7 +27415,7 @@
       </c>
       <c r="DJ134" s="66"/>
       <c r="DK134" s="93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="DM134" s="89"/>
       <c r="DN134" s="65" t="s">
@@ -27446,7 +27423,7 @@
       </c>
       <c r="DO134" s="66"/>
       <c r="DP134" s="15" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="DR134" s="89"/>
       <c r="DS134" s="65" t="s">
@@ -27454,21 +27431,21 @@
       </c>
       <c r="DT134" s="66"/>
       <c r="DU134" s="93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="EG134" s="89"/>
       <c r="EH134" s="65" t="s">
         <v>326</v>
       </c>
       <c r="EI134" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="EK134" s="89"/>
       <c r="EL134" s="65" t="s">
         <v>326</v>
       </c>
       <c r="EM134" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="EN134" s="15"/>
       <c r="EO134" s="89"/>
@@ -27476,7 +27453,7 @@
         <v>326</v>
       </c>
       <c r="EQ134" s="15" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="ER134" s="15"/>
       <c r="ES134" s="89"/>
@@ -27484,7 +27461,7 @@
         <v>326</v>
       </c>
       <c r="EU134" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="EV134" s="15"/>
       <c r="EW134" s="89"/>
@@ -27492,7 +27469,7 @@
         <v>326</v>
       </c>
       <c r="EY134" s="15" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="EZ134" s="27"/>
       <c r="FA134" s="34" t="s">
@@ -27509,67 +27486,67 @@
         <v>326</v>
       </c>
       <c r="FG134" s="15" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="FI134" s="89"/>
       <c r="FJ134" s="65" t="s">
         <v>326</v>
       </c>
       <c r="FK134" s="15" t="s">
-        <v>437</v>
+        <v>337</v>
       </c>
       <c r="FM134" s="89"/>
       <c r="FN134" s="65" t="s">
         <v>326</v>
       </c>
       <c r="FO134" s="15" t="s">
-        <v>340</v>
+        <v>432</v>
       </c>
     </row>
     <row r="135" spans="112:172" ht="15" thickBot="1">
       <c r="DH135" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DI135" s="6"/>
       <c r="DJ135" s="6"/>
       <c r="DK135" s="7"/>
       <c r="DM135" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DN135" s="6"/>
       <c r="DO135" s="6"/>
       <c r="DP135" s="7"/>
       <c r="DR135" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DS135" s="6"/>
       <c r="DT135" s="6"/>
       <c r="DU135" s="7"/>
       <c r="EG135" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EH135" s="6"/>
       <c r="EI135" s="7"/>
       <c r="EK135" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EL135" s="6"/>
       <c r="EM135" s="7"/>
       <c r="EN135" s="11"/>
       <c r="EO135" s="102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EP135" s="11"/>
       <c r="EQ135" s="103"/>
       <c r="ER135" s="11"/>
       <c r="ES135" s="102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="ET135" s="11"/>
       <c r="EU135" s="103"/>
       <c r="EV135" s="11"/>
       <c r="EW135" s="102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EX135" s="11"/>
       <c r="EY135" s="103"/>
@@ -27579,74 +27556,74 @@
         <v>293</v>
       </c>
       <c r="FC135" s="60" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="FE135" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="FF135" s="6"/>
       <c r="FG135" s="7"/>
       <c r="FI135" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="FJ135" s="6"/>
       <c r="FK135" s="7"/>
       <c r="FM135" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="FN135" s="6"/>
       <c r="FO135" s="7"/>
     </row>
     <row r="136" spans="112:172" ht="15" thickBot="1">
       <c r="DH136" s="88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="DI136" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="DJ136" s="108"/>
       <c r="DK136" s="109"/>
       <c r="DM136" s="88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="DN136" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="DO136" s="108"/>
       <c r="DP136" s="109"/>
       <c r="DR136" s="88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="DS136" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="DT136" s="108"/>
       <c r="DU136" s="109"/>
       <c r="EG136" s="88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="EH136" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="EI136" s="108"/>
       <c r="EJ136" s="109"/>
       <c r="EK136" s="88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="EL136" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="EM136" s="108"/>
       <c r="EN136" s="108"/>
       <c r="EO136" s="109"/>
       <c r="EP136" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="EQ136" s="108"/>
       <c r="ER136" s="110"/>
       <c r="ES136" s="110"/>
       <c r="ET136" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="EU136" s="108"/>
       <c r="EV136" s="110"/>
@@ -27662,91 +27639,91 @@
         <v>44861</v>
       </c>
       <c r="FE136" s="88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="FF136" s="107" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="FG136" s="108"/>
       <c r="FH136" s="109"/>
       <c r="FI136" s="88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="FJ136" s="107" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="FK136" s="108"/>
       <c r="FL136" s="109"/>
       <c r="FM136" s="88" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="FN136" s="107" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="FO136" s="108"/>
       <c r="FP136" s="109"/>
     </row>
     <row r="137" spans="112:172" ht="15" thickBot="1">
       <c r="DH137" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="DI137" s="105" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="DJ137" s="105"/>
       <c r="DK137" s="106"/>
       <c r="DM137" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="DN137" s="104" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="DO137" s="105"/>
       <c r="DP137" s="106"/>
       <c r="DR137" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="DS137" s="104" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="DT137" s="105"/>
       <c r="DU137" s="106"/>
       <c r="EG137" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="EH137" s="104" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="EI137" s="106"/>
       <c r="EK137" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="EL137" s="104" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="EM137" s="106"/>
       <c r="EN137" s="130"/>
       <c r="EO137" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="EP137" s="104" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="EQ137" s="106"/>
       <c r="ER137" s="130"/>
       <c r="ES137" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="ET137" s="104" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="EU137" s="106"/>
       <c r="EV137" s="130"/>
       <c r="EW137" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="EX137" s="104" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="EY137" s="106"/>
       <c r="EZ137" s="110"/>
@@ -27757,33 +27734,33 @@
         <v>284</v>
       </c>
       <c r="FC137" s="15" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="FE137" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="FF137" s="104" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="FG137" s="106"/>
       <c r="FI137" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="FJ137" s="104" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="FK137" s="106"/>
       <c r="FM137" s="88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="FN137" s="104" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="FO137" s="106"/>
     </row>
     <row r="138" spans="112:172" ht="15" thickBot="1">
       <c r="DH138" s="88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="DI138" s="114" t="str">
         <f>"2024.4"</f>
@@ -27792,7 +27769,7 @@
       <c r="DJ138" s="115"/>
       <c r="DK138" s="116"/>
       <c r="DM138" s="88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="DN138" s="114" t="str">
         <f>"2024.4"</f>
@@ -27801,7 +27778,7 @@
       <c r="DO138" s="115"/>
       <c r="DP138" s="116"/>
       <c r="DR138" s="88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="DS138" s="114" t="str">
         <f>"2024.4"</f>
@@ -27810,7 +27787,7 @@
       <c r="DT138" s="115"/>
       <c r="DU138" s="116"/>
       <c r="EG138" s="88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="EH138" s="131" t="str">
         <f>"2024.4"</f>
@@ -27818,7 +27795,7 @@
       </c>
       <c r="EI138" s="109"/>
       <c r="EK138" s="88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="EL138" s="131" t="str">
         <f>"2024.4"</f>
@@ -27827,7 +27804,7 @@
       <c r="EM138" s="109"/>
       <c r="EN138" s="130"/>
       <c r="EO138" s="88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="EP138" s="131" t="str">
         <f>"2024.4"</f>
@@ -27836,7 +27813,7 @@
       <c r="EQ138" s="109"/>
       <c r="ER138" s="130"/>
       <c r="ES138" s="88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="ET138" s="131" t="str">
         <f>"2024.4"</f>
@@ -27845,7 +27822,7 @@
       <c r="EU138" s="109"/>
       <c r="EV138" s="130"/>
       <c r="EW138" s="88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="EX138" s="131" t="str">
         <f>"2024.4"</f>
@@ -27858,29 +27835,32 @@
         <v>326</v>
       </c>
       <c r="FC138" s="15" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="FE138" s="88" t="s">
-        <v>355</v>
-      </c>
-      <c r="FF138" s="131" t="s">
-        <v>363</v>
-      </c>
-      <c r="FG138" s="109"/>
+        <v>352</v>
+      </c>
+      <c r="FF138" s="114" t="str">
+        <f>"2024.4"</f>
+        <v>2024.4</v>
+      </c>
+      <c r="FG138" s="132"/>
       <c r="FI138" s="88" t="s">
-        <v>355</v>
-      </c>
-      <c r="FJ138" s="131" t="s">
-        <v>363</v>
-      </c>
-      <c r="FK138" s="109"/>
+        <v>352</v>
+      </c>
+      <c r="FJ138" s="114" t="str">
+        <f>"2024.4"</f>
+        <v>2024.4</v>
+      </c>
+      <c r="FK138" s="132"/>
       <c r="FM138" s="88" t="s">
-        <v>355</v>
-      </c>
-      <c r="FN138" s="131" t="s">
-        <v>363</v>
-      </c>
-      <c r="FO138" s="109"/>
+        <v>352</v>
+      </c>
+      <c r="FN138" s="114" t="str">
+        <f>"2024.4"</f>
+        <v>2024.4</v>
+      </c>
+      <c r="FO138" s="132"/>
     </row>
     <row r="139" spans="112:172" ht="15" thickBot="1">
       <c r="DH139" s="88"/>
@@ -27915,209 +27895,209 @@
       <c r="EY139" s="106"/>
       <c r="EZ139" s="105"/>
       <c r="FA139" s="102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="FB139" s="11"/>
       <c r="FC139" s="103"/>
       <c r="FE139" s="88"/>
-      <c r="FF139" s="104"/>
-      <c r="FG139" s="106"/>
+      <c r="FF139" s="107"/>
+      <c r="FG139" s="109"/>
       <c r="FI139" s="88"/>
-      <c r="FJ139" s="104"/>
-      <c r="FK139" s="106"/>
+      <c r="FJ139" s="107"/>
+      <c r="FK139" s="109"/>
       <c r="FM139" s="88"/>
-      <c r="FN139" s="104"/>
-      <c r="FO139" s="106"/>
+      <c r="FN139" s="107"/>
+      <c r="FO139" s="109"/>
     </row>
     <row r="140" spans="112:172" ht="15" thickBot="1">
       <c r="DH140" s="88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="DI140" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="DJ140" s="108"/>
       <c r="DK140" s="109"/>
       <c r="DM140" s="88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="DN140" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="DO140" s="108"/>
       <c r="DP140" s="109"/>
       <c r="DR140" s="88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="DS140" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="DT140" s="108"/>
       <c r="DU140" s="109"/>
       <c r="EG140" s="88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="EH140" s="104" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="EI140" s="106"/>
       <c r="EK140" s="88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="EL140" s="104" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="EM140" s="106"/>
       <c r="EN140" s="130"/>
       <c r="EO140" s="88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="EP140" s="104" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="EQ140" s="106"/>
       <c r="ER140" s="130"/>
       <c r="ES140" s="88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="ET140" s="104" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="EU140" s="106"/>
       <c r="EV140" s="130"/>
       <c r="EW140" s="88" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="EX140" s="104" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="EY140" s="106"/>
       <c r="EZ140" s="130"/>
       <c r="FA140" s="88" t="s">
-        <v>346</v>
-      </c>
-      <c r="FB140" s="132" t="s">
-        <v>344</v>
-      </c>
-      <c r="FC140" s="133"/>
+        <v>343</v>
+      </c>
+      <c r="FB140" s="133" t="s">
+        <v>341</v>
+      </c>
+      <c r="FC140" s="134"/>
       <c r="FE140" s="88" t="s">
-        <v>368</v>
-      </c>
-      <c r="FF140" s="104" t="s">
-        <v>370</v>
-      </c>
-      <c r="FG140" s="106"/>
+        <v>365</v>
+      </c>
+      <c r="FF140" s="107" t="s">
+        <v>363</v>
+      </c>
+      <c r="FG140" s="109"/>
       <c r="FI140" s="88" t="s">
-        <v>368</v>
-      </c>
-      <c r="FJ140" s="104" t="s">
-        <v>370</v>
-      </c>
-      <c r="FK140" s="106"/>
+        <v>365</v>
+      </c>
+      <c r="FJ140" s="107" t="s">
+        <v>363</v>
+      </c>
+      <c r="FK140" s="109"/>
       <c r="FM140" s="88" t="s">
-        <v>368</v>
-      </c>
-      <c r="FN140" s="104" t="s">
-        <v>370</v>
-      </c>
-      <c r="FO140" s="106"/>
+        <v>365</v>
+      </c>
+      <c r="FN140" s="107" t="s">
+        <v>363</v>
+      </c>
+      <c r="FO140" s="109"/>
     </row>
     <row r="141" spans="112:172" ht="15" thickBot="1">
       <c r="DH141" s="88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="DI141" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="DJ141" s="108"/>
       <c r="DK141" s="109"/>
       <c r="DM141" s="88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="DN141" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="DO141" s="108"/>
       <c r="DP141" s="109"/>
       <c r="DR141" s="88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="DS141" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="DT141" s="108"/>
       <c r="DU141" s="109"/>
       <c r="EG141" s="88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="EH141" s="104" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="EI141" s="106"/>
       <c r="EK141" s="88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="EL141" s="104" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="EM141" s="106"/>
       <c r="EN141" s="130"/>
       <c r="EO141" s="88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="EP141" s="104" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="EQ141" s="106"/>
       <c r="ER141" s="130"/>
       <c r="ES141" s="88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="ET141" s="104" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="EU141" s="106"/>
       <c r="EV141" s="130"/>
       <c r="EW141" s="88" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="EX141" s="104" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="EY141" s="106"/>
       <c r="EZ141" s="130"/>
       <c r="FA141" s="88" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="FB141" s="107" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="FC141" s="109"/>
       <c r="FE141" s="88" t="s">
-        <v>373</v>
-      </c>
-      <c r="FF141" s="104" t="s">
-        <v>370</v>
-      </c>
-      <c r="FG141" s="106"/>
+        <v>369</v>
+      </c>
+      <c r="FF141" s="107" t="s">
+        <v>363</v>
+      </c>
+      <c r="FG141" s="109"/>
       <c r="FI141" s="88" t="s">
-        <v>373</v>
-      </c>
-      <c r="FJ141" s="104" t="s">
-        <v>370</v>
-      </c>
-      <c r="FK141" s="106"/>
+        <v>369</v>
+      </c>
+      <c r="FJ141" s="107" t="s">
+        <v>363</v>
+      </c>
+      <c r="FK141" s="109"/>
       <c r="FM141" s="88" t="s">
-        <v>373</v>
-      </c>
-      <c r="FN141" s="104" t="s">
-        <v>370</v>
-      </c>
-      <c r="FO141" s="106"/>
+        <v>369</v>
+      </c>
+      <c r="FN141" s="107" t="s">
+        <v>363</v>
+      </c>
+      <c r="FO141" s="109"/>
     </row>
     <row r="142" spans="112:172" ht="15" thickBot="1">
       <c r="DH142" s="88" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="DI142" s="104">
         <v>88</v>
@@ -28125,7 +28105,7 @@
       <c r="DJ142" s="105"/>
       <c r="DK142" s="106"/>
       <c r="DM142" s="88" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="DN142" s="104">
         <v>64</v>
@@ -28133,7 +28113,7 @@
       <c r="DO142" s="105"/>
       <c r="DP142" s="106"/>
       <c r="DR142" s="88" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="DS142" s="104">
         <v>112</v>
@@ -28141,14 +28121,14 @@
       <c r="DT142" s="105"/>
       <c r="DU142" s="106"/>
       <c r="EG142" s="88" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="EH142" s="104">
         <v>40</v>
       </c>
       <c r="EI142" s="106"/>
       <c r="EK142" s="88" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="EL142" s="104">
         <v>80</v>
@@ -28156,7 +28136,7 @@
       <c r="EM142" s="106"/>
       <c r="EN142" s="130"/>
       <c r="EO142" s="88" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="EP142" s="104">
         <v>120</v>
@@ -28164,7 +28144,7 @@
       <c r="EQ142" s="106"/>
       <c r="ER142" s="130"/>
       <c r="ES142" s="88" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="ET142" s="104">
         <v>64</v>
@@ -28172,19 +28152,21 @@
       <c r="EU142" s="106"/>
       <c r="EV142" s="130"/>
       <c r="EW142" s="88" t="s">
-        <v>377</v>
-      </c>
-      <c r="EX142" s="104"/>
+        <v>373</v>
+      </c>
+      <c r="EX142" s="104">
+        <v>8</v>
+      </c>
       <c r="EY142" s="106"/>
       <c r="EZ142" s="130"/>
       <c r="FA142" s="88" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="FB142" s="114" t="str">
         <f>"2024.4"</f>
         <v>2024.4</v>
       </c>
-      <c r="FC142" s="134"/>
+      <c r="FC142" s="132"/>
     </row>
     <row r="143" spans="112:172" ht="15" thickBot="1">
       <c r="FA143" s="88"/>
@@ -28193,25 +28175,25 @@
     </row>
     <row r="144" spans="112:172" ht="15" thickBot="1">
       <c r="FA144" s="88" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="FB144" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="FC144" s="109"/>
     </row>
     <row r="145" spans="157:159" ht="15" thickBot="1">
       <c r="FA145" s="88" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="FB145" s="107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="FC145" s="109"/>
     </row>
     <row r="146" spans="157:159" ht="15" thickBot="1">
       <c r="FA146" s="88" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="FB146" s="104">
         <v>8</v>
@@ -28219,23 +28201,32 @@
       <c r="FC146" s="106"/>
     </row>
   </sheetData>
-  <mergeCells count="1292">
+  <mergeCells count="1301">
+    <mergeCell ref="FB142:FC142"/>
+    <mergeCell ref="FB143:FC143"/>
     <mergeCell ref="FB144:FC144"/>
     <mergeCell ref="FB145:FC145"/>
+    <mergeCell ref="FN140:FO140"/>
     <mergeCell ref="DI141:DK141"/>
     <mergeCell ref="DN141:DP141"/>
     <mergeCell ref="DS141:DU141"/>
     <mergeCell ref="FB141:FC141"/>
-    <mergeCell ref="FB142:FC142"/>
-    <mergeCell ref="FB143:FC143"/>
+    <mergeCell ref="FF141:FG141"/>
+    <mergeCell ref="FJ141:FK141"/>
+    <mergeCell ref="FN141:FO141"/>
+    <mergeCell ref="DI140:DK140"/>
+    <mergeCell ref="DN140:DP140"/>
+    <mergeCell ref="DS140:DU140"/>
+    <mergeCell ref="FB140:FC140"/>
+    <mergeCell ref="FF140:FG140"/>
+    <mergeCell ref="FJ140:FK140"/>
     <mergeCell ref="EX138:EY138"/>
     <mergeCell ref="FF138:FG138"/>
     <mergeCell ref="FJ138:FK138"/>
     <mergeCell ref="FN138:FO138"/>
-    <mergeCell ref="DI140:DK140"/>
-    <mergeCell ref="DN140:DP140"/>
-    <mergeCell ref="DS140:DU140"/>
-    <mergeCell ref="FB140:FC140"/>
+    <mergeCell ref="FF139:FG139"/>
+    <mergeCell ref="FJ139:FK139"/>
+    <mergeCell ref="FN139:FO139"/>
     <mergeCell ref="FJ136:FL136"/>
     <mergeCell ref="FN136:FP136"/>
     <mergeCell ref="FA137:FA138"/>
@@ -29514,43 +29505,43 @@
     <mergeCell ref="Z1:AC1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AH4" r:id="rId1" display="https://ark.intel.com/search?q=i7-8700T" xr:uid="{CF33BB57-FFE6-40DE-973F-801D5B287A11}"/>
-    <hyperlink ref="AC4" r:id="rId2" display="https://ark.intel.com/search?q=i5-8500" xr:uid="{0CAB3B38-1AAA-4321-809E-1F6CA614E0B9}"/>
-    <hyperlink ref="DA4" r:id="rId3" display="https://ark.intel.com/search?q=E-2124G" xr:uid="{225AC755-196C-4701-8243-68C869F84201}"/>
-    <hyperlink ref="DK4" r:id="rId4" xr:uid="{82A08E94-554D-4021-A9E5-4AF6725FD2CE}"/>
-    <hyperlink ref="DP4" r:id="rId5" display="https://ark.intel.com/search?q=Gold+5218T" xr:uid="{72E8FE0F-2BA3-4A28-BB28-F680300953A0}"/>
-    <hyperlink ref="DU4" r:id="rId6" xr:uid="{72172F66-A7E1-49E9-851F-9B2F871BB1C2}"/>
-    <hyperlink ref="EE4" r:id="rId7" xr:uid="{C1FFA117-71D9-4692-8B0A-35309EC5CC92}"/>
-    <hyperlink ref="AM4" r:id="rId8" display="https://ark.intel.com/search?q=i5-10500TE" xr:uid="{31170656-1BC8-4269-90D5-F7CE2D0C8FFD}"/>
-    <hyperlink ref="AW4" r:id="rId9" display="https://ark.intel.com/search?q=i9-10900TE" xr:uid="{0941885B-B845-4718-B0F8-52882077F28C}"/>
-    <hyperlink ref="DF4" r:id="rId10" display="https://ark.intel.com/search?q=W-1290P" xr:uid="{11388211-E51D-4151-91CC-23F44EAAFDA6}"/>
-    <hyperlink ref="AR4" r:id="rId11" display="https://ark.intel.com/search?q=i5-10500TE" xr:uid="{BF9AE069-4881-4513-B0C2-671A84440539}"/>
-    <hyperlink ref="X4" r:id="rId12" display="https://ark.intel.com/search?q=i3-8100" xr:uid="{B93A7B44-09FF-4F85-AFAD-65F74DC7F15F}"/>
-    <hyperlink ref="BQ4" r:id="rId13" xr:uid="{B3A4FEF8-B268-4011-A0DF-C2A4141FF8CD}"/>
-    <hyperlink ref="BL4" r:id="rId14" display="https://ark.intel.com/search?q=6305E" xr:uid="{6ACE46B4-1543-4E54-A372-92E2A512F7DC}"/>
-    <hyperlink ref="DZ4" r:id="rId15" display="https://ark.intel.com/search?q=i7-7800X" xr:uid="{20D52596-4D20-4845-B248-C6C385DDE62D}"/>
-    <hyperlink ref="EI4" r:id="rId16" xr:uid="{35B723DB-E619-4A17-A1FA-E84D01ED6E89}"/>
-    <hyperlink ref="EQ4" r:id="rId17" display="Intel® Xeon® Platinum 8490H CPU @ 1.90GHz" xr:uid="{14623BD8-1245-4984-AEEB-55560ED7EFDF}"/>
-    <hyperlink ref="CV4" r:id="rId18" xr:uid="{964BE952-F42D-4D32-AE5A-D1EF3D8C464A}"/>
-    <hyperlink ref="CQ4" r:id="rId19" xr:uid="{94216051-7F05-4F27-A350-030499119EE0}"/>
-    <hyperlink ref="EM4" r:id="rId20" xr:uid="{E0F513B1-C85A-4359-83D8-99E9AEE17F86}"/>
-    <hyperlink ref="BV4" r:id="rId21" xr:uid="{1CCFCF0D-92CA-4A0D-A5E9-538CF9295A25}"/>
-    <hyperlink ref="FT4" r:id="rId22" display="11th Gen Core™ i7-11700K" xr:uid="{274869F3-DE65-4829-86A1-0B880EDF47F6}"/>
-    <hyperlink ref="FY4" r:id="rId23" xr:uid="{8ECFE762-A137-4950-ABC4-81B9CFBE8D4F}"/>
-    <hyperlink ref="GD4" r:id="rId24" xr:uid="{D47064E7-0858-447D-A843-7A5951005972}"/>
-    <hyperlink ref="FC4" r:id="rId25" xr:uid="{964B1B4B-1BD5-4381-BD15-E17E05CDE9D9}"/>
-    <hyperlink ref="EY4" r:id="rId26" display="Intel® Xeon® Gold 6448Y CPU @ 2.10GHz" xr:uid="{61FED098-4E4D-4408-B39D-1BD5FB18B77F}"/>
-    <hyperlink ref="CA4" r:id="rId27" xr:uid="{6116B985-3F61-4AF3-B93F-B24BF46FBCBE}"/>
-    <hyperlink ref="BB4" r:id="rId28" display="https://ark.intel.com/search?q=i5-10500TE" xr:uid="{21603C4D-0D95-407A-AD32-B62C5421BA73}"/>
-    <hyperlink ref="BG4" r:id="rId29" xr:uid="{528BBF1F-7598-48A8-A8C4-EAB061959CEA}"/>
-    <hyperlink ref="CF4" r:id="rId30" xr:uid="{1E38D1AF-70B9-4389-804B-BAE2AF847034}"/>
-    <hyperlink ref="CL4" r:id="rId31" display="13th Gen Intel(R) Core(TM) i5-13600K" xr:uid="{1463982F-44B4-4A6E-A467-E5E0451EA4D0}"/>
-    <hyperlink ref="EU4" r:id="rId32" xr:uid="{889E938A-55A6-42F2-82B1-CC9BF5540527}"/>
-    <hyperlink ref="GI4" r:id="rId33" xr:uid="{C469487E-6CA6-4E34-8076-44A64201F06B}"/>
-    <hyperlink ref="D4" r:id="rId34" xr:uid="{87C15C41-1D3F-405D-AFF2-BB07BA07190E}"/>
-    <hyperlink ref="I4" r:id="rId35" xr:uid="{9B72E842-EB36-4219-8163-4DCF5A1EB34B}"/>
-    <hyperlink ref="N4" r:id="rId36" xr:uid="{DB48F9F6-19F0-4F4B-A5AF-10FE9E7C5ABB}"/>
-    <hyperlink ref="S4" r:id="rId37" xr:uid="{46006A3F-DEE7-434C-B846-C94130D67295}"/>
+    <hyperlink ref="AH4" r:id="rId1" display="https://ark.intel.com/search?q=i7-8700T" xr:uid="{2EED559D-84B3-4D08-A14C-F0273B1D1AE5}"/>
+    <hyperlink ref="AC4" r:id="rId2" display="https://ark.intel.com/search?q=i5-8500" xr:uid="{0943FD22-F12A-4EDE-872A-FCD7574DD771}"/>
+    <hyperlink ref="DA4" r:id="rId3" display="https://ark.intel.com/search?q=E-2124G" xr:uid="{169AC857-B4DC-492F-AAED-136D722DAE98}"/>
+    <hyperlink ref="DK4" r:id="rId4" xr:uid="{6B026A70-0306-4B11-888E-E012DD38B463}"/>
+    <hyperlink ref="DP4" r:id="rId5" display="https://ark.intel.com/search?q=Gold+5218T" xr:uid="{5A9D730C-D7E1-4CE4-A9C6-CFD9B8EE56AC}"/>
+    <hyperlink ref="DU4" r:id="rId6" xr:uid="{B800C4F1-DA24-4AC4-AFD6-961E8CEC4B99}"/>
+    <hyperlink ref="EE4" r:id="rId7" xr:uid="{0DC96E3D-4046-4841-B89A-CBA50AC41076}"/>
+    <hyperlink ref="AM4" r:id="rId8" display="https://ark.intel.com/search?q=i5-10500TE" xr:uid="{145826FF-6859-4936-A89F-F00B486AE1EB}"/>
+    <hyperlink ref="AW4" r:id="rId9" display="https://ark.intel.com/search?q=i9-10900TE" xr:uid="{90D4BA49-1FD4-411A-A7BF-77BAAE6A393E}"/>
+    <hyperlink ref="DF4" r:id="rId10" display="https://ark.intel.com/search?q=W-1290P" xr:uid="{3D925411-D4DB-4B9D-A63E-C5804CF5E408}"/>
+    <hyperlink ref="AR4" r:id="rId11" display="https://ark.intel.com/search?q=i5-10500TE" xr:uid="{E2361C5E-5E65-4976-BEBB-B8A8E1765F7F}"/>
+    <hyperlink ref="X4" r:id="rId12" display="https://ark.intel.com/search?q=i3-8100" xr:uid="{9AF69119-F1FA-4590-939A-D62AFA9CECA7}"/>
+    <hyperlink ref="BQ4" r:id="rId13" xr:uid="{A758A657-FC6D-42BC-AD68-124229A8E27A}"/>
+    <hyperlink ref="BL4" r:id="rId14" display="https://ark.intel.com/search?q=6305E" xr:uid="{C9A1FFDD-671F-4131-906A-D1BC7E308D5D}"/>
+    <hyperlink ref="DZ4" r:id="rId15" display="https://ark.intel.com/search?q=i7-7800X" xr:uid="{E97C2DCD-9DD2-4188-BC62-35833866B00F}"/>
+    <hyperlink ref="EI4" r:id="rId16" xr:uid="{EBD3B412-3D88-4F26-A3DA-4859EF4AC765}"/>
+    <hyperlink ref="EQ4" r:id="rId17" display="Intel® Xeon® Platinum 8490H CPU @ 1.90GHz" xr:uid="{06B72A2B-7A32-4F8D-92E9-0A7AFC29FF9E}"/>
+    <hyperlink ref="CV4" r:id="rId18" xr:uid="{B804FD2A-761C-475A-B127-4DB7C1544B09}"/>
+    <hyperlink ref="CQ4" r:id="rId19" xr:uid="{6F6D4034-0F8A-44C1-9E1D-D1DBF6848674}"/>
+    <hyperlink ref="EM4" r:id="rId20" xr:uid="{E0782FA3-F9C1-4FDD-9156-AC6E73BF8122}"/>
+    <hyperlink ref="BV4" r:id="rId21" xr:uid="{9EDF83E9-8E54-4111-996B-840847169011}"/>
+    <hyperlink ref="FT4" r:id="rId22" display="11th Gen Core™ i7-11700K" xr:uid="{D34CB10B-F9C3-4A0C-8324-77D026932D12}"/>
+    <hyperlink ref="FY4" r:id="rId23" xr:uid="{517A4F6B-C248-466A-A8FF-6B62F40444BE}"/>
+    <hyperlink ref="GD4" r:id="rId24" xr:uid="{7EB6C675-F368-4233-8A7D-871D43E57F45}"/>
+    <hyperlink ref="FC4" r:id="rId25" xr:uid="{D3D8EE15-DF32-4981-8999-2BD3495C3707}"/>
+    <hyperlink ref="EY4" r:id="rId26" display="Intel® Xeon® Gold 6448Y CPU @ 2.10GHz" xr:uid="{610588EF-E1FA-4896-B6F6-52B26FFDE670}"/>
+    <hyperlink ref="CA4" r:id="rId27" xr:uid="{AAD20556-8947-4FB4-80AF-93FB9FDCC308}"/>
+    <hyperlink ref="BB4" r:id="rId28" display="https://ark.intel.com/search?q=i5-10500TE" xr:uid="{B1EDF591-EA99-47AA-A48F-742C3436267F}"/>
+    <hyperlink ref="BG4" r:id="rId29" xr:uid="{772344BF-075A-48E3-AFDB-A300664F3A90}"/>
+    <hyperlink ref="CF4" r:id="rId30" xr:uid="{476658D8-E215-43CA-9327-AC8E02E2D55C}"/>
+    <hyperlink ref="CL4" r:id="rId31" display="13th Gen Intel(R) Core(TM) i5-13600K" xr:uid="{62A9DC86-609C-49E8-8849-86E13B84B66E}"/>
+    <hyperlink ref="EU4" r:id="rId32" xr:uid="{88D1ACED-ABEA-4024-9C2C-EAD8C1D8EF50}"/>
+    <hyperlink ref="GI4" r:id="rId33" xr:uid="{5A973173-867A-4532-ACD9-DA1441BB95F9}"/>
+    <hyperlink ref="D4" r:id="rId34" xr:uid="{A05AF28F-8CF7-4BC5-8061-3A2C906A0E20}"/>
+    <hyperlink ref="I4" r:id="rId35" xr:uid="{ADD5FAB9-A4DD-49BD-ADCD-C064FB5F358D}"/>
+    <hyperlink ref="N4" r:id="rId36" xr:uid="{FC1DBA25-40D4-4EB0-B789-9696143D6C64}"/>
+    <hyperlink ref="S4" r:id="rId37" xr:uid="{8992CB1C-981D-4FBA-8A9C-6D2A532C0C29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId38"/>
